--- a/DV-Gesamtliste_2021_12_bearbeitet.xlsx
+++ b/DV-Gesamtliste_2021_12_bearbeitet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bwedu-my.sharepoint.com/personal/lisa_holderied_bwedu_de/Documents/5. Semester/Geo 51 Streuobst/WebGIS Direktvermarkter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="13_ncr:1_{DC8C47CB-4E5E-40AC-9CAA-1FE349FACED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EFF8B1B-AB10-9D40-9448-BE4404639B0B}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="13_ncr:1_{DC8C47CB-4E5E-40AC-9CAA-1FE349FACED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10EF6DA3-174E-A243-9AB4-93A251481CE4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DV-Broschüre" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4795" uniqueCount="1679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4809" uniqueCount="1683">
   <si>
     <t>Direktvermarkter im Kreis Tübingen</t>
   </si>
@@ -5248,9 +5248,6 @@
     <t>Ott_Sabine</t>
   </si>
   <si>
-    <t>Kaiser_Alexander</t>
-  </si>
-  <si>
     <t>Gauß_Ernst</t>
   </si>
   <si>
@@ -5351,6 +5348,21 @@
   </si>
   <si>
     <t>Produkte auch im Automaten in der Ziegelhüttenstr. 52 in Bühl erhältlich</t>
+  </si>
+  <si>
+    <t>Automat Hof Kemmler</t>
+  </si>
+  <si>
+    <t>Heerstr. 25</t>
+  </si>
+  <si>
+    <t>Eier, Dosenwurst, Knoblauch, Obstbrände, Gsälz</t>
+  </si>
+  <si>
+    <t>Kaiser_Alexander_Ei</t>
+  </si>
+  <si>
+    <t>Kaiser_Alexander_Oel</t>
   </si>
 </sst>
 </file>
@@ -6182,15 +6194,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -6211,6 +6214,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6624,15 +6636,15 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Q2" s="171" t="s">
+      <c r="Q2" s="178" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="171"/>
-      <c r="S2" s="171"/>
-      <c r="X2" s="169" t="s">
+      <c r="R2" s="178"/>
+      <c r="S2" s="178"/>
+      <c r="X2" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="Y2" s="170"/>
+      <c r="Y2" s="177"/>
     </row>
     <row r="3" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -16930,9 +16942,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B116" sqref="B116"/>
+      <selection pane="topRight" activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.1640625" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -16966,7 +16978,7 @@
       <c r="B1" s="167" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="172" t="s">
+      <c r="C1" s="169" t="s">
         <v>1641</v>
       </c>
       <c r="D1" s="76" t="s">
@@ -17041,8 +17053,58 @@
       <c r="AA1" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="173" t="s">
-        <v>1674</v>
+      <c r="AB1" s="170" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="32" x14ac:dyDescent="0.3">
+      <c r="B2" s="20" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="G2" s="8">
+        <v>72127</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="J2" s="8">
+        <v>72127</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>1411</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V2" t="s">
+        <v>1680</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="48" x14ac:dyDescent="0.3">
@@ -17114,7 +17176,7 @@
       <c r="Y3" s="99"/>
       <c r="Z3" s="98"/>
       <c r="AA3" s="99"/>
-      <c r="AB3" s="174"/>
+      <c r="AB3" s="171"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="166">
@@ -17177,7 +17239,7 @@
       <c r="Y4" s="104"/>
       <c r="Z4" s="100"/>
       <c r="AA4" s="104"/>
-      <c r="AB4" s="174"/>
+      <c r="AB4" s="171"/>
     </row>
     <row r="5" spans="1:28" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="166">
@@ -17246,7 +17308,7 @@
       <c r="AA5" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="AB5" s="174"/>
+      <c r="AB5" s="171"/>
     </row>
     <row r="6" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="166">
@@ -17319,7 +17381,7 @@
         <v>42</v>
       </c>
       <c r="AA6" s="94"/>
-      <c r="AB6" s="174"/>
+      <c r="AB6" s="171"/>
     </row>
     <row r="7" spans="1:28" ht="32" x14ac:dyDescent="0.3">
       <c r="A7" s="166">
@@ -17388,7 +17450,7 @@
       <c r="AA7" s="100" t="s">
         <v>87</v>
       </c>
-      <c r="AB7" s="175"/>
+      <c r="AB7" s="172"/>
     </row>
     <row r="8" spans="1:28" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="166">
@@ -17457,7 +17519,7 @@
       <c r="AA8" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="AB8" s="174"/>
+      <c r="AB8" s="171"/>
     </row>
     <row r="9" spans="1:28" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="166">
@@ -17530,7 +17592,7 @@
         <v>42</v>
       </c>
       <c r="AA9" s="104"/>
-      <c r="AB9" s="174"/>
+      <c r="AB9" s="171"/>
     </row>
     <row r="10" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="166">
@@ -17605,7 +17667,7 @@
       <c r="AA10" s="104" t="s">
         <v>116</v>
       </c>
-      <c r="AB10" s="174"/>
+      <c r="AB10" s="171"/>
     </row>
     <row r="11" spans="1:28" ht="135" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="166">
@@ -17678,7 +17740,7 @@
       <c r="AA11" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="AB11" s="174"/>
+      <c r="AB11" s="171"/>
     </row>
     <row r="12" spans="1:28" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="166">
@@ -17755,7 +17817,7 @@
       <c r="AA12" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="AB12" s="174"/>
+      <c r="AB12" s="171"/>
     </row>
     <row r="13" spans="1:28" ht="126" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="166">
@@ -17826,7 +17888,7 @@
       <c r="AA13" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AB13" s="176"/>
+      <c r="AB13" s="173"/>
     </row>
     <row r="14" spans="1:28" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="166">
@@ -17899,7 +17961,7 @@
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
       <c r="AA14" s="6"/>
-      <c r="AB14" s="176"/>
+      <c r="AB14" s="173"/>
     </row>
     <row r="15" spans="1:28" ht="140.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="166">
@@ -17974,7 +18036,7 @@
       <c r="AA15" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AB15" s="176"/>
+      <c r="AB15" s="173"/>
     </row>
     <row r="16" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="166">
@@ -18053,7 +18115,7 @@
       <c r="AA16" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="AB16" s="177"/>
+      <c r="AB16" s="174"/>
     </row>
     <row r="17" spans="1:28" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="166">
@@ -18063,7 +18125,7 @@
         <v>1436</v>
       </c>
       <c r="C17" s="88" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>185</v>
@@ -18129,7 +18191,7 @@
       <c r="AA17" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="AB17" s="176"/>
+      <c r="AB17" s="173"/>
     </row>
     <row r="18" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="166">
@@ -18202,7 +18264,7 @@
       <c r="AA18" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="AB18" s="176"/>
+      <c r="AB18" s="173"/>
     </row>
     <row r="19" spans="1:28" ht="48" x14ac:dyDescent="0.3">
       <c r="A19" s="166">
@@ -18277,7 +18339,7 @@
       <c r="AA19" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="AB19" s="177"/>
+      <c r="AB19" s="174"/>
     </row>
     <row r="20" spans="1:28" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="166">
@@ -18287,7 +18349,7 @@
         <v>224</v>
       </c>
       <c r="C20" s="88" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="D20" s="39" t="s">
         <v>225</v>
@@ -18347,7 +18409,7 @@
       <c r="AA20" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="AB20" s="177"/>
+      <c r="AB20" s="174"/>
     </row>
     <row r="21" spans="1:28" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="166">
@@ -18408,13 +18470,13 @@
       </c>
       <c r="V21" s="6"/>
       <c r="W21" s="8" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="X21" s="6"/>
       <c r="Y21" s="6"/>
       <c r="Z21" s="6"/>
       <c r="AA21" s="6"/>
-      <c r="AB21" s="176"/>
+      <c r="AB21" s="173"/>
     </row>
     <row r="22" spans="1:28" ht="80" x14ac:dyDescent="0.3">
       <c r="A22" s="166">
@@ -18489,7 +18551,7 @@
       <c r="AA22" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AB22" s="176"/>
+      <c r="AB22" s="173"/>
     </row>
     <row r="23" spans="1:28" ht="32" x14ac:dyDescent="0.3">
       <c r="A23" s="166">
@@ -18554,7 +18616,7 @@
       <c r="Y23" s="6"/>
       <c r="Z23" s="6"/>
       <c r="AA23" s="6"/>
-      <c r="AB23" s="176"/>
+      <c r="AB23" s="173"/>
     </row>
     <row r="24" spans="1:28" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="166">
@@ -18619,7 +18681,7 @@
       <c r="Y24" s="41"/>
       <c r="Z24" s="41"/>
       <c r="AA24" s="41"/>
-      <c r="AB24" s="176"/>
+      <c r="AB24" s="173"/>
     </row>
     <row r="25" spans="1:28" ht="32" x14ac:dyDescent="0.3">
       <c r="A25" s="166">
@@ -18688,7 +18750,7 @@
       <c r="AA25" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="AB25" s="177"/>
+      <c r="AB25" s="174"/>
     </row>
     <row r="26" spans="1:28" ht="64" x14ac:dyDescent="0.3">
       <c r="A26" s="166">
@@ -18759,7 +18821,7 @@
       <c r="Y26" s="41"/>
       <c r="Z26" s="41"/>
       <c r="AA26" s="41"/>
-      <c r="AB26" s="176"/>
+      <c r="AB26" s="173"/>
     </row>
     <row r="27" spans="1:28" ht="48" x14ac:dyDescent="0.3">
       <c r="A27" s="166">
@@ -18830,7 +18892,7 @@
         <v>42</v>
       </c>
       <c r="AA27" s="8"/>
-      <c r="AB27" s="177"/>
+      <c r="AB27" s="174"/>
     </row>
     <row r="28" spans="1:28" ht="48" x14ac:dyDescent="0.3">
       <c r="A28" s="166">
@@ -18903,7 +18965,7 @@
       <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
       <c r="AA28" s="6"/>
-      <c r="AB28" s="176"/>
+      <c r="AB28" s="173"/>
     </row>
     <row r="29" spans="1:28" ht="32" x14ac:dyDescent="0.3">
       <c r="A29" s="166">
@@ -18974,7 +19036,7 @@
       <c r="AA29" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="AB29" s="176"/>
+      <c r="AB29" s="173"/>
     </row>
     <row r="30" spans="1:28" ht="80" x14ac:dyDescent="0.3">
       <c r="A30" s="166">
@@ -19043,7 +19105,7 @@
       <c r="Y30" s="6"/>
       <c r="Z30" s="6"/>
       <c r="AA30" s="6"/>
-      <c r="AB30" s="176"/>
+      <c r="AB30" s="173"/>
     </row>
     <row r="31" spans="1:28" ht="48" x14ac:dyDescent="0.3">
       <c r="A31" s="166">
@@ -19114,7 +19176,7 @@
         <v>42</v>
       </c>
       <c r="AA31" s="6"/>
-      <c r="AB31" s="176"/>
+      <c r="AB31" s="173"/>
     </row>
     <row r="32" spans="1:28" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="166">
@@ -19185,7 +19247,7 @@
       <c r="AA32" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="AB32" s="176"/>
+      <c r="AB32" s="173"/>
     </row>
     <row r="33" spans="1:28" ht="130.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="166">
@@ -19256,7 +19318,7 @@
         <v>42</v>
       </c>
       <c r="AA33" s="6"/>
-      <c r="AB33" s="176"/>
+      <c r="AB33" s="173"/>
     </row>
     <row r="34" spans="1:28" ht="168" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="166">
@@ -19317,7 +19379,7 @@
         <v>373</v>
       </c>
       <c r="U34" s="39" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="V34" s="41" t="s">
         <v>375</v>
@@ -19333,7 +19395,7 @@
       <c r="AA34" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="AB34" s="176"/>
+      <c r="AB34" s="173"/>
     </row>
     <row r="35" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="166">
@@ -19404,7 +19466,7 @@
       <c r="Y35" s="6"/>
       <c r="Z35" s="6"/>
       <c r="AA35" s="6"/>
-      <c r="AB35" s="176"/>
+      <c r="AB35" s="173"/>
     </row>
     <row r="36" spans="1:28" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="166">
@@ -19479,7 +19541,7 @@
       <c r="Y36" s="6"/>
       <c r="Z36" s="6"/>
       <c r="AA36" s="6"/>
-      <c r="AB36" s="176"/>
+      <c r="AB36" s="173"/>
     </row>
     <row r="37" spans="1:28" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="166">
@@ -19560,7 +19622,7 @@
       <c r="AA37" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="AB37" s="177"/>
+      <c r="AB37" s="174"/>
     </row>
     <row r="38" spans="1:28" ht="32" x14ac:dyDescent="0.3">
       <c r="A38" s="166">
@@ -19570,7 +19632,7 @@
         <v>419</v>
       </c>
       <c r="C38" s="88" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>420</v>
@@ -19634,7 +19696,7 @@
       <c r="AA38" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="AB38" s="177"/>
+      <c r="AB38" s="174"/>
     </row>
     <row r="39" spans="1:28" ht="140.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="166">
@@ -19644,7 +19706,7 @@
         <v>430</v>
       </c>
       <c r="C39" s="88" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>431</v>
@@ -19708,7 +19770,7 @@
       <c r="AA39" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="AB39" s="176"/>
+      <c r="AB39" s="173"/>
     </row>
     <row r="40" spans="1:28" ht="48" x14ac:dyDescent="0.3">
       <c r="A40" s="166">
@@ -19785,7 +19847,7 @@
         <v>42</v>
       </c>
       <c r="AA40" s="6"/>
-      <c r="AB40" s="176"/>
+      <c r="AB40" s="173"/>
     </row>
     <row r="41" spans="1:28" ht="64" x14ac:dyDescent="0.3">
       <c r="A41" s="166">
@@ -19858,8 +19920,8 @@
       <c r="AA41" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AB41" s="176" t="s">
-        <v>1675</v>
+      <c r="AB41" s="173" t="s">
+        <v>1674</v>
       </c>
     </row>
     <row r="42" spans="1:28" ht="69" customHeight="1" x14ac:dyDescent="0.3">
@@ -19939,7 +20001,7 @@
       <c r="AA42" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AB42" s="176"/>
+      <c r="AB42" s="173"/>
     </row>
     <row r="43" spans="1:28" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="166">
@@ -19949,7 +20011,7 @@
         <v>476</v>
       </c>
       <c r="C43" s="88" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>477</v>
@@ -20011,7 +20073,7 @@
       <c r="AA43" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="AB43" s="176"/>
+      <c r="AB43" s="173"/>
     </row>
     <row r="44" spans="1:28" ht="138.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="166">
@@ -20084,7 +20146,7 @@
         <v>42</v>
       </c>
       <c r="AA44" s="6"/>
-      <c r="AB44" s="176"/>
+      <c r="AB44" s="173"/>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C45" s="88" t="str">
@@ -20100,7 +20162,7 @@
         <v>507</v>
       </c>
       <c r="C46" s="88" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>508</v>
@@ -20156,7 +20218,7 @@
       <c r="Y46" s="6"/>
       <c r="Z46" s="6"/>
       <c r="AA46" s="6"/>
-      <c r="AB46" s="176"/>
+      <c r="AB46" s="173"/>
     </row>
     <row r="47" spans="1:28" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="166">
@@ -20166,7 +20228,7 @@
         <v>517</v>
       </c>
       <c r="C47" s="88" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>518</v>
@@ -20228,7 +20290,7 @@
       <c r="AA47" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AB47" s="176"/>
+      <c r="AB47" s="173"/>
     </row>
     <row r="48" spans="1:28" ht="32" x14ac:dyDescent="0.3">
       <c r="A48" s="166">
@@ -20299,7 +20361,7 @@
       <c r="AA48" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AB48" s="176"/>
+      <c r="AB48" s="173"/>
     </row>
     <row r="49" spans="1:28" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="166">
@@ -20372,7 +20434,7 @@
       <c r="AA49" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="AB49" s="176"/>
+      <c r="AB49" s="173"/>
     </row>
     <row r="50" spans="1:28" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="166">
@@ -20447,7 +20509,7 @@
       <c r="AA50" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AB50" s="176"/>
+      <c r="AB50" s="173"/>
     </row>
     <row r="51" spans="1:28" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="166">
@@ -20457,7 +20519,7 @@
         <v>556</v>
       </c>
       <c r="C51" s="88" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>557</v>
@@ -20519,7 +20581,7 @@
       <c r="AA51" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AB51" s="176"/>
+      <c r="AB51" s="173"/>
     </row>
     <row r="52" spans="1:28" ht="95.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="166">
@@ -20592,7 +20654,7 @@
         <v>42</v>
       </c>
       <c r="AA52" s="6"/>
-      <c r="AB52" s="176"/>
+      <c r="AB52" s="173"/>
     </row>
     <row r="53" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="166">
@@ -20663,7 +20725,7 @@
       <c r="AA53" s="131" t="s">
         <v>116</v>
       </c>
-      <c r="AB53" s="178"/>
+      <c r="AB53" s="175"/>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A54" s="166">
@@ -20734,7 +20796,7 @@
       <c r="AA54" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AB54" s="176"/>
+      <c r="AB54" s="173"/>
     </row>
     <row r="55" spans="1:28" ht="64" x14ac:dyDescent="0.3">
       <c r="A55" s="166">
@@ -20811,7 +20873,7 @@
       <c r="AA55" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="AB55" s="176"/>
+      <c r="AB55" s="173"/>
     </row>
     <row r="56" spans="1:28" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="166">
@@ -20886,7 +20948,7 @@
       <c r="AA56" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="AB56" s="177"/>
+      <c r="AB56" s="174"/>
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A57" s="166">
@@ -20957,7 +21019,7 @@
       <c r="AA57" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AB57" s="176"/>
+      <c r="AB57" s="173"/>
     </row>
     <row r="58" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="166">
@@ -20967,7 +21029,7 @@
         <v>624</v>
       </c>
       <c r="C58" s="88" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>625</v>
@@ -21029,7 +21091,7 @@
       <c r="Y58" s="6"/>
       <c r="Z58" s="6"/>
       <c r="AA58" s="6"/>
-      <c r="AB58" s="176"/>
+      <c r="AB58" s="173"/>
     </row>
     <row r="59" spans="1:28" ht="96" x14ac:dyDescent="0.3">
       <c r="A59" s="166">
@@ -21104,7 +21166,7 @@
       <c r="Y59" s="6"/>
       <c r="Z59" s="6"/>
       <c r="AA59" s="6"/>
-      <c r="AB59" s="176"/>
+      <c r="AB59" s="173"/>
     </row>
     <row r="60" spans="1:28" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="166">
@@ -21173,7 +21235,7 @@
       <c r="Y60" s="6"/>
       <c r="Z60" s="6"/>
       <c r="AA60" s="6"/>
-      <c r="AB60" s="176"/>
+      <c r="AB60" s="173"/>
     </row>
     <row r="61" spans="1:28" ht="48" x14ac:dyDescent="0.3">
       <c r="A61" s="166">
@@ -21240,7 +21302,7 @@
       <c r="Y61" s="6"/>
       <c r="Z61" s="6"/>
       <c r="AA61" s="6"/>
-      <c r="AB61" s="176"/>
+      <c r="AB61" s="173"/>
     </row>
     <row r="62" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="166">
@@ -21311,7 +21373,7 @@
       <c r="Y62" s="6"/>
       <c r="Z62" s="6"/>
       <c r="AA62" s="6"/>
-      <c r="AB62" s="176"/>
+      <c r="AB62" s="173"/>
     </row>
     <row r="63" spans="1:28" ht="48" x14ac:dyDescent="0.3">
       <c r="A63" s="166">
@@ -21321,7 +21383,7 @@
         <v>675</v>
       </c>
       <c r="C63" s="88" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>676</v>
@@ -21381,7 +21443,7 @@
       <c r="AA63" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="AB63" s="176"/>
+      <c r="AB63" s="173"/>
     </row>
     <row r="64" spans="1:28" ht="107.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="166">
@@ -21391,7 +21453,7 @@
         <v>684</v>
       </c>
       <c r="C64" s="88" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>685</v>
@@ -21516,7 +21578,7 @@
         <v>42</v>
       </c>
       <c r="AA65" s="6"/>
-      <c r="AB65" s="176"/>
+      <c r="AB65" s="173"/>
     </row>
     <row r="66" spans="1:28" ht="80" x14ac:dyDescent="0.3">
       <c r="A66" s="166">
@@ -21591,7 +21653,7 @@
       <c r="AA66" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AB66" s="176"/>
+      <c r="AB66" s="173"/>
     </row>
     <row r="67" spans="1:28" ht="48" x14ac:dyDescent="0.3">
       <c r="A67" s="166">
@@ -21668,7 +21730,7 @@
       <c r="AA67" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="AB67" s="176"/>
+      <c r="AB67" s="173"/>
     </row>
     <row r="68" spans="1:28" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="166">
@@ -21678,7 +21740,7 @@
         <v>725</v>
       </c>
       <c r="C68" s="88" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>726</v>
@@ -21746,7 +21808,7 @@
       <c r="AA68" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="AB68" s="176"/>
+      <c r="AB68" s="173"/>
     </row>
     <row r="69" spans="1:28" ht="64" x14ac:dyDescent="0.3">
       <c r="A69" s="166">
@@ -21756,7 +21818,7 @@
         <v>1500</v>
       </c>
       <c r="C69" s="88" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>739</v>
@@ -21820,7 +21882,7 @@
       <c r="AA69" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="AB69" s="176"/>
+      <c r="AB69" s="173"/>
     </row>
     <row r="70" spans="1:28" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="166">
@@ -21890,7 +21952,7 @@
       <c r="Y70" s="6"/>
       <c r="Z70" s="6"/>
       <c r="AA70" s="6"/>
-      <c r="AB70" s="176"/>
+      <c r="AB70" s="173"/>
     </row>
     <row r="71" spans="1:28" ht="32" x14ac:dyDescent="0.3">
       <c r="A71" s="166">
@@ -21900,7 +21962,7 @@
         <v>758</v>
       </c>
       <c r="C71" s="88" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>759</v>
@@ -21956,7 +22018,7 @@
         <v>42</v>
       </c>
       <c r="AA71" s="6"/>
-      <c r="AB71" s="176"/>
+      <c r="AB71" s="173"/>
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A72" s="166">
@@ -22027,7 +22089,7 @@
         <v>42</v>
       </c>
       <c r="AA72" s="6"/>
-      <c r="AB72" s="176"/>
+      <c r="AB72" s="173"/>
     </row>
     <row r="73" spans="1:28" ht="64" x14ac:dyDescent="0.3">
       <c r="A73" s="166">
@@ -22104,7 +22166,7 @@
       <c r="AA73" s="8" t="s">
         <v>788</v>
       </c>
-      <c r="AB73" s="177"/>
+      <c r="AB73" s="174"/>
     </row>
     <row r="74" spans="1:28" ht="32" x14ac:dyDescent="0.3">
       <c r="A74" s="166">
@@ -22179,7 +22241,7 @@
         <v>42</v>
       </c>
       <c r="AA74" s="8"/>
-      <c r="AB74" s="177"/>
+      <c r="AB74" s="174"/>
     </row>
     <row r="75" spans="1:28" ht="64" x14ac:dyDescent="0.3">
       <c r="A75" s="166">
@@ -22254,7 +22316,7 @@
         <v>42</v>
       </c>
       <c r="AA75" s="8"/>
-      <c r="AB75" s="177"/>
+      <c r="AB75" s="174"/>
     </row>
     <row r="76" spans="1:28" ht="48" x14ac:dyDescent="0.3">
       <c r="A76" s="166">
@@ -22329,7 +22391,7 @@
       <c r="AA76" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="AB76" s="177"/>
+      <c r="AB76" s="174"/>
     </row>
     <row r="77" spans="1:28" ht="64" x14ac:dyDescent="0.3">
       <c r="A77" s="166">
@@ -22339,7 +22401,7 @@
         <v>1514</v>
       </c>
       <c r="C77" s="88" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>825</v>
@@ -22405,7 +22467,7 @@
       <c r="AA77" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="AB77" s="177"/>
+      <c r="AB77" s="174"/>
     </row>
     <row r="78" spans="1:28" ht="155.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="166">
@@ -22480,7 +22542,7 @@
         <v>42</v>
       </c>
       <c r="AA78" s="8"/>
-      <c r="AB78" s="177"/>
+      <c r="AB78" s="174"/>
     </row>
     <row r="79" spans="1:28" ht="109.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="166">
@@ -22553,7 +22615,7 @@
       <c r="Y79" s="6"/>
       <c r="Z79" s="6"/>
       <c r="AA79" s="6"/>
-      <c r="AB79" s="176"/>
+      <c r="AB79" s="173"/>
     </row>
     <row r="80" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="166">
@@ -22620,7 +22682,7 @@
       <c r="Y80" s="6"/>
       <c r="Z80" s="6"/>
       <c r="AA80" s="6"/>
-      <c r="AB80" s="176"/>
+      <c r="AB80" s="173"/>
     </row>
     <row r="81" spans="1:28" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="166">
@@ -22630,7 +22692,7 @@
         <v>863</v>
       </c>
       <c r="C81" s="88" t="s">
-        <v>1644</v>
+        <v>1682</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>864</v>
@@ -22700,7 +22762,7 @@
       <c r="AA81" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AB81" s="176"/>
+      <c r="AB81" s="173"/>
     </row>
     <row r="82" spans="1:28" ht="96" x14ac:dyDescent="0.3">
       <c r="A82" s="166">
@@ -22772,7 +22834,7 @@
       <c r="AA82" s="8" t="s">
         <v>888</v>
       </c>
-      <c r="AB82" s="177"/>
+      <c r="AB82" s="174"/>
     </row>
     <row r="83" spans="1:28" ht="32" x14ac:dyDescent="0.3">
       <c r="A83" s="166">
@@ -22782,7 +22844,7 @@
         <v>1522</v>
       </c>
       <c r="C83" s="88" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="D83" s="125" t="s">
         <v>891</v>
@@ -22835,7 +22897,7 @@
       <c r="Y83" s="6"/>
       <c r="Z83" s="6"/>
       <c r="AA83" s="6"/>
-      <c r="AB83" s="176"/>
+      <c r="AB83" s="173"/>
     </row>
     <row r="84" spans="1:28" ht="64" x14ac:dyDescent="0.3">
       <c r="A84" s="166">
@@ -22845,7 +22907,7 @@
         <v>899</v>
       </c>
       <c r="C84" s="88" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>767</v>
@@ -22907,7 +22969,7 @@
       <c r="AA84" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AB84" s="176"/>
+      <c r="AB84" s="173"/>
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A85" s="166">
@@ -22974,7 +23036,7 @@
       <c r="Y85" s="6"/>
       <c r="Z85" s="6"/>
       <c r="AA85" s="6"/>
-      <c r="AB85" s="176"/>
+      <c r="AB85" s="173"/>
     </row>
     <row r="86" spans="1:28" ht="48" x14ac:dyDescent="0.3">
       <c r="A86" s="166">
@@ -23049,7 +23111,7 @@
         <v>42</v>
       </c>
       <c r="AA86" s="6"/>
-      <c r="AB86" s="176"/>
+      <c r="AB86" s="173"/>
     </row>
     <row r="87" spans="1:28" ht="48" x14ac:dyDescent="0.3">
       <c r="A87" s="166">
@@ -23059,7 +23121,7 @@
         <v>923</v>
       </c>
       <c r="C87" s="88" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>924</v>
@@ -23113,7 +23175,7 @@
       <c r="Y87" s="6"/>
       <c r="Z87" s="6"/>
       <c r="AA87" s="6"/>
-      <c r="AB87" s="176"/>
+      <c r="AB87" s="173"/>
     </row>
     <row r="88" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="166">
@@ -23123,7 +23185,7 @@
         <v>931</v>
       </c>
       <c r="C88" s="88" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>932</v>
@@ -23183,7 +23245,7 @@
         <v>42</v>
       </c>
       <c r="AA88" s="6"/>
-      <c r="AB88" s="176"/>
+      <c r="AB88" s="173"/>
     </row>
     <row r="89" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="166">
@@ -23252,7 +23314,7 @@
         <v>42</v>
       </c>
       <c r="AA89" s="6"/>
-      <c r="AB89" s="176"/>
+      <c r="AB89" s="173"/>
     </row>
     <row r="90" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="166">
@@ -23323,7 +23385,7 @@
       <c r="AA90" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AB90" s="176"/>
+      <c r="AB90" s="173"/>
     </row>
     <row r="91" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="166">
@@ -23398,7 +23460,7 @@
       <c r="Y91" s="6"/>
       <c r="Z91" s="6"/>
       <c r="AA91" s="6"/>
-      <c r="AB91" s="176"/>
+      <c r="AB91" s="173"/>
     </row>
     <row r="92" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="166">
@@ -23471,7 +23533,7 @@
         <v>42</v>
       </c>
       <c r="AA92" s="6"/>
-      <c r="AB92" s="176"/>
+      <c r="AB92" s="173"/>
     </row>
     <row r="93" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="166">
@@ -23541,7 +23603,7 @@
       <c r="Y93" s="6"/>
       <c r="Z93" s="6"/>
       <c r="AA93" s="6"/>
-      <c r="AB93" s="176"/>
+      <c r="AB93" s="173"/>
     </row>
     <row r="94" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="166">
@@ -23606,7 +23668,7 @@
       <c r="Y94" s="6"/>
       <c r="Z94" s="6"/>
       <c r="AA94" s="6"/>
-      <c r="AB94" s="176"/>
+      <c r="AB94" s="173"/>
     </row>
     <row r="95" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="166">
@@ -23681,7 +23743,7 @@
       <c r="AA95" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="AB95" s="177"/>
+      <c r="AB95" s="174"/>
     </row>
     <row r="96" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="166">
@@ -23756,7 +23818,7 @@
       <c r="AA96" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AB96" s="176"/>
+      <c r="AB96" s="173"/>
     </row>
     <row r="97" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="166">
@@ -23833,7 +23895,7 @@
       <c r="AA97" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AB97" s="176"/>
+      <c r="AB97" s="173"/>
     </row>
     <row r="98" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="166">
@@ -23906,7 +23968,7 @@
       <c r="AA98" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="AB98" s="177"/>
+      <c r="AB98" s="174"/>
     </row>
     <row r="99" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="166">
@@ -23977,7 +24039,7 @@
       <c r="Y99" s="6"/>
       <c r="Z99" s="6"/>
       <c r="AA99" s="6"/>
-      <c r="AB99" s="176"/>
+      <c r="AB99" s="173"/>
     </row>
     <row r="100" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="166">
@@ -24118,7 +24180,7 @@
       </c>
       <c r="Z101" s="6"/>
       <c r="AA101" s="6"/>
-      <c r="AB101" s="176"/>
+      <c r="AB101" s="173"/>
     </row>
     <row r="102" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="166">
@@ -24187,7 +24249,7 @@
         <v>42</v>
       </c>
       <c r="AA102" s="6"/>
-      <c r="AB102" s="176"/>
+      <c r="AB102" s="173"/>
     </row>
     <row r="103" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="166">
@@ -24197,7 +24259,7 @@
         <v>1082</v>
       </c>
       <c r="C103" s="88" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="D103" s="8" t="s">
         <v>1083</v>
@@ -24263,7 +24325,7 @@
         <v>42</v>
       </c>
       <c r="AA103" s="6"/>
-      <c r="AB103" s="176"/>
+      <c r="AB103" s="173"/>
     </row>
     <row r="104" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="166">
@@ -24273,7 +24335,7 @@
         <v>1092</v>
       </c>
       <c r="C104" s="88" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>1093</v>
@@ -24333,7 +24395,7 @@
       <c r="Y104" s="6"/>
       <c r="Z104" s="6"/>
       <c r="AA104" s="6"/>
-      <c r="AB104" s="176"/>
+      <c r="AB104" s="173"/>
     </row>
     <row r="105" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="166">
@@ -24400,7 +24462,7 @@
       <c r="Y105" s="6"/>
       <c r="Z105" s="6"/>
       <c r="AA105" s="6"/>
-      <c r="AB105" s="176"/>
+      <c r="AB105" s="173"/>
     </row>
     <row r="106" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="166">
@@ -24410,13 +24472,13 @@
         <v>1112</v>
       </c>
       <c r="C106" s="88" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="F106" s="8" t="s">
         <v>1114</v>
@@ -24482,7 +24544,7 @@
       <c r="AA106" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="AB106" s="177"/>
+      <c r="AB106" s="174"/>
     </row>
     <row r="107" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C107" s="88" t="str">
@@ -24498,7 +24560,7 @@
         <v>1132</v>
       </c>
       <c r="C108" s="88" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="D108" s="8" t="s">
         <v>1133</v>
@@ -24562,7 +24624,7 @@
       <c r="Y108" s="6"/>
       <c r="Z108" s="6"/>
       <c r="AA108" s="6"/>
-      <c r="AB108" s="176"/>
+      <c r="AB108" s="173"/>
     </row>
     <row r="109" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="166">
@@ -24631,7 +24693,7 @@
       <c r="AA109" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AB109" s="176"/>
+      <c r="AB109" s="173"/>
     </row>
     <row r="110" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="166">
@@ -24706,7 +24768,7 @@
         <v>42</v>
       </c>
       <c r="AA110" s="6"/>
-      <c r="AB110" s="176"/>
+      <c r="AB110" s="173"/>
     </row>
     <row r="111" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="166">
@@ -24716,7 +24778,7 @@
         <v>1164</v>
       </c>
       <c r="C111" s="88" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="D111" s="6" t="s">
         <v>1093</v>
@@ -24780,7 +24842,7 @@
         <v>42</v>
       </c>
       <c r="AA111" s="6"/>
-      <c r="AB111" s="176"/>
+      <c r="AB111" s="173"/>
     </row>
     <row r="112" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="166">
@@ -24853,7 +24915,7 @@
       <c r="AA112" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AB112" s="176"/>
+      <c r="AB112" s="173"/>
     </row>
     <row r="113" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="166">
@@ -24928,7 +24990,7 @@
       <c r="Y113" s="71"/>
       <c r="Z113" s="71"/>
       <c r="AA113" s="71"/>
-      <c r="AB113" s="176"/>
+      <c r="AB113" s="173"/>
     </row>
     <row r="114" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="166">
@@ -25001,7 +25063,7 @@
       <c r="AA114" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="AB114" s="176"/>
+      <c r="AB114" s="173"/>
     </row>
     <row r="115" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="166">
@@ -25080,7 +25142,7 @@
       <c r="AA115" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AB115" s="176"/>
+      <c r="AB115" s="173"/>
     </row>
     <row r="116" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="166">
@@ -25151,8 +25213,8 @@
         <v>42</v>
       </c>
       <c r="AA116" s="6"/>
-      <c r="AB116" s="176" t="s">
-        <v>1678</v>
+      <c r="AB116" s="173" t="s">
+        <v>1677</v>
       </c>
     </row>
     <row r="117" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -25232,7 +25294,7 @@
       <c r="AA117" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AB117" s="176"/>
+      <c r="AB117" s="173"/>
     </row>
     <row r="118" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="166">
@@ -25242,7 +25304,7 @@
         <v>1236</v>
       </c>
       <c r="C118" s="88" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="D118" s="6" t="s">
         <v>1237</v>
@@ -25304,7 +25366,7 @@
       <c r="AA118" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="AB118" s="176"/>
+      <c r="AB118" s="173"/>
     </row>
     <row r="119" spans="1:28" ht="96" x14ac:dyDescent="0.3">
       <c r="A119" s="166">
@@ -25375,7 +25437,7 @@
         <v>42</v>
       </c>
       <c r="AA119" s="6"/>
-      <c r="AB119" s="176"/>
+      <c r="AB119" s="173"/>
     </row>
     <row r="120" spans="1:28" ht="32" x14ac:dyDescent="0.3">
       <c r="A120" s="166">
@@ -25448,7 +25510,7 @@
       <c r="AA120" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="AB120" s="176"/>
+      <c r="AB120" s="173"/>
     </row>
     <row r="121" spans="1:28" ht="48" x14ac:dyDescent="0.3">
       <c r="A121" s="166">
@@ -25527,7 +25589,7 @@
       <c r="AA121" s="8" t="s">
         <v>1276</v>
       </c>
-      <c r="AB121" s="177"/>
+      <c r="AB121" s="174"/>
     </row>
     <row r="122" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="166">
@@ -25605,7 +25667,7 @@
       <c r="AA122" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AB122" s="176"/>
+      <c r="AB122" s="173"/>
     </row>
     <row r="123" spans="1:28" ht="32" x14ac:dyDescent="0.3">
       <c r="A123" s="166">
@@ -25674,7 +25736,7 @@
       <c r="AA123" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AB123" s="176"/>
+      <c r="AB123" s="173"/>
     </row>
     <row r="124" spans="1:28" ht="48" x14ac:dyDescent="0.3">
       <c r="A124" s="166">
@@ -25746,7 +25808,7 @@
         <v>42</v>
       </c>
       <c r="AA124" s="6"/>
-      <c r="AB124" s="176"/>
+      <c r="AB124" s="173"/>
     </row>
     <row r="125" spans="1:28" ht="80" x14ac:dyDescent="0.3">
       <c r="A125" s="166">
@@ -25816,7 +25878,7 @@
       <c r="Y125" s="6"/>
       <c r="Z125" s="6"/>
       <c r="AA125" s="6"/>
-      <c r="AB125" s="176"/>
+      <c r="AB125" s="173"/>
     </row>
     <row r="126" spans="1:28" ht="80" x14ac:dyDescent="0.3">
       <c r="A126" s="166">
@@ -25891,7 +25953,7 @@
       <c r="AA126" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AB126" s="176"/>
+      <c r="AB126" s="173"/>
     </row>
     <row r="127" spans="1:28" ht="80" x14ac:dyDescent="0.3">
       <c r="A127" s="166">
@@ -25964,7 +26026,7 @@
         <v>42</v>
       </c>
       <c r="AA127" s="6"/>
-      <c r="AB127" s="176"/>
+      <c r="AB127" s="173"/>
     </row>
     <row r="128" spans="1:28" ht="112" x14ac:dyDescent="0.3">
       <c r="A128" s="166">
@@ -26045,7 +26107,7 @@
       <c r="AA128" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AB128" s="176"/>
+      <c r="AB128" s="173"/>
     </row>
     <row r="129" spans="1:28" ht="112" x14ac:dyDescent="0.3">
       <c r="A129" s="166">
@@ -26116,7 +26178,7 @@
       <c r="Y129" s="6"/>
       <c r="Z129" s="6"/>
       <c r="AA129" s="6"/>
-      <c r="AB129" s="176"/>
+      <c r="AB129" s="173"/>
     </row>
     <row r="130" spans="1:28" ht="96" x14ac:dyDescent="0.3">
       <c r="A130" s="166">
@@ -26193,7 +26255,7 @@
       <c r="AA130" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AB130" s="176"/>
+      <c r="AB130" s="173"/>
     </row>
     <row r="131" spans="1:28" ht="128" x14ac:dyDescent="0.3">
       <c r="A131" s="166">
@@ -26266,7 +26328,7 @@
       <c r="Y131" s="6"/>
       <c r="Z131" s="6"/>
       <c r="AA131" s="6"/>
-      <c r="AB131" s="176"/>
+      <c r="AB131" s="173"/>
     </row>
     <row r="132" spans="1:28" ht="80" x14ac:dyDescent="0.3">
       <c r="A132" s="166">
@@ -26335,7 +26397,7 @@
       <c r="Y132" s="6"/>
       <c r="Z132" s="6"/>
       <c r="AA132" s="6"/>
-      <c r="AB132" s="176"/>
+      <c r="AB132" s="173"/>
     </row>
     <row r="133" spans="1:28" ht="48" x14ac:dyDescent="0.3">
       <c r="A133" s="166">
@@ -26408,7 +26470,7 @@
         <v>42</v>
       </c>
       <c r="AA133" s="8"/>
-      <c r="AB133" s="177"/>
+      <c r="AB133" s="174"/>
     </row>
     <row r="134" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="166">
@@ -26479,7 +26541,7 @@
       <c r="AA134" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="AB134" s="176"/>
+      <c r="AB134" s="173"/>
     </row>
     <row r="135" spans="1:28" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="166">
@@ -26489,7 +26551,7 @@
         <v>1436</v>
       </c>
       <c r="C135" s="88" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="D135" s="6" t="s">
         <v>185</v>
@@ -26551,7 +26613,7 @@
       <c r="AA135" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="AB135" s="176"/>
+      <c r="AB135" s="173"/>
     </row>
     <row r="136" spans="1:28" ht="32" x14ac:dyDescent="0.3">
       <c r="A136" s="166">
@@ -26620,7 +26682,7 @@
       <c r="AA136" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="AB136" s="177"/>
+      <c r="AB136" s="174"/>
     </row>
     <row r="137" spans="1:28" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="166">
@@ -26691,7 +26753,7 @@
       <c r="Y137" s="6"/>
       <c r="Z137" s="6"/>
       <c r="AA137" s="6"/>
-      <c r="AB137" s="176"/>
+      <c r="AB137" s="173"/>
     </row>
     <row r="138" spans="1:28" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="166">
@@ -26764,7 +26826,7 @@
       <c r="AA138" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="AB138" s="177"/>
+      <c r="AB138" s="174"/>
     </row>
     <row r="139" spans="1:28" ht="48" x14ac:dyDescent="0.3">
       <c r="A139" s="166">
@@ -26837,7 +26899,7 @@
         <v>42</v>
       </c>
       <c r="AA139" s="6"/>
-      <c r="AB139" s="176"/>
+      <c r="AB139" s="173"/>
     </row>
     <row r="140" spans="1:28" ht="95.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="166">
@@ -26906,7 +26968,7 @@
         <v>42</v>
       </c>
       <c r="AA140" s="6"/>
-      <c r="AB140" s="176"/>
+      <c r="AB140" s="173"/>
     </row>
     <row r="141" spans="1:28" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="166">
@@ -26971,7 +27033,7 @@
       <c r="Y141" s="6"/>
       <c r="Z141" s="6"/>
       <c r="AA141" s="6"/>
-      <c r="AB141" s="176"/>
+      <c r="AB141" s="173"/>
     </row>
     <row r="142" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="166">
@@ -27036,7 +27098,7 @@
       <c r="Y142" s="6"/>
       <c r="Z142" s="6"/>
       <c r="AA142" s="6"/>
-      <c r="AB142" s="176"/>
+      <c r="AB142" s="173"/>
     </row>
     <row r="143" spans="1:28" ht="32" x14ac:dyDescent="0.3">
       <c r="A143" s="166">
@@ -27104,7 +27166,7 @@
         <v>42</v>
       </c>
       <c r="AA143" s="8"/>
-      <c r="AB143" s="177"/>
+      <c r="AB143" s="174"/>
     </row>
     <row r="144" spans="1:28" ht="48" x14ac:dyDescent="0.3">
       <c r="A144" s="166">
@@ -27174,7 +27236,7 @@
       <c r="AA144" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="AB144" s="177"/>
+      <c r="AB144" s="174"/>
     </row>
     <row r="145" spans="1:28" ht="104" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="166">
@@ -27241,7 +27303,7 @@
         <v>42</v>
       </c>
       <c r="AA145" s="8"/>
-      <c r="AB145" s="177"/>
+      <c r="AB145" s="174"/>
     </row>
     <row r="146" spans="1:28" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="166">
@@ -27251,7 +27313,7 @@
         <v>863</v>
       </c>
       <c r="C146" s="88" t="s">
-        <v>1644</v>
+        <v>1681</v>
       </c>
       <c r="D146" s="8" t="s">
         <v>864</v>
@@ -27313,7 +27375,7 @@
       <c r="AA146" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AB146" s="176"/>
+      <c r="AB146" s="173"/>
     </row>
     <row r="147" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="166">
@@ -27379,7 +27441,7 @@
       <c r="Y147" s="6"/>
       <c r="Z147" s="6"/>
       <c r="AA147" s="6"/>
-      <c r="AB147" s="176"/>
+      <c r="AB147" s="173"/>
     </row>
     <row r="148" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="166">
@@ -27452,7 +27514,7 @@
       <c r="AA148" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AB148" s="176"/>
+      <c r="AB148" s="173"/>
     </row>
     <row r="149" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="166">
@@ -27519,7 +27581,7 @@
       <c r="AA149" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AB149" s="176"/>
+      <c r="AB149" s="173"/>
     </row>
     <row r="150" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="166">
@@ -27529,7 +27591,7 @@
         <v>1184</v>
       </c>
       <c r="C150" s="88" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="D150" s="8" t="s">
         <v>1185</v>
@@ -27585,8 +27647,8 @@
       <c r="Y150" s="71"/>
       <c r="Z150" s="71"/>
       <c r="AA150" s="71"/>
-      <c r="AB150" s="176" t="s">
-        <v>1676</v>
+      <c r="AB150" s="173" t="s">
+        <v>1675</v>
       </c>
     </row>
     <row r="151" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -27656,8 +27718,8 @@
         <v>42</v>
       </c>
       <c r="AA151" s="6"/>
-      <c r="AB151" s="176" t="s">
-        <v>1678</v>
+      <c r="AB151" s="173" t="s">
+        <v>1677</v>
       </c>
     </row>
     <row r="152" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -27732,7 +27794,7 @@
       <c r="AA152" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AB152" s="176"/>
+      <c r="AB152" s="173"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -27945,6 +28007,8 @@
     <hyperlink ref="M151" r:id="rId207" xr:uid="{014D335A-3366-034B-8215-4D101B9D4695}"/>
     <hyperlink ref="M152" r:id="rId208" xr:uid="{70A339E9-C76B-0042-8E30-5EF060E2DB19}"/>
     <hyperlink ref="O152" r:id="rId209" xr:uid="{C7E99B51-FF48-A042-A7A8-CBAB6949306C}"/>
+    <hyperlink ref="M2" r:id="rId210" display="mailto:info@landgut-kemmler.de" xr:uid="{59E43BA6-DCFF-BA4C-88AC-0D99DFEA94E7}"/>
+    <hyperlink ref="O2" r:id="rId211" xr:uid="{2580604F-B9AF-0648-A6C6-D208861BF314}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29742,7 +29806,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:26" ht="80" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" ht="176" x14ac:dyDescent="0.3">
       <c r="A63" s="166">
         <v>1</v>
       </c>

--- a/DV-Gesamtliste_2021_12_bearbeitet.xlsx
+++ b/DV-Gesamtliste_2021_12_bearbeitet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bwedu-my.sharepoint.com/personal/lisa_holderied_bwedu_de/Documents/5. Semester/Geo 51 Streuobst/WebGIS Direktvermarkter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timow\Documents\Family\Timo\Studium\Geographie\5. Semester\Geo51\WebGIS Direktvermarktung\DV_WebGIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="13_ncr:1_{DC8C47CB-4E5E-40AC-9CAA-1FE349FACED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10EF6DA3-174E-A243-9AB4-93A251481CE4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57B32B1-09C9-4C9E-B261-2C38386B509A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7810" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DV-Broschüre" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4809" uniqueCount="1683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4810" uniqueCount="1684">
   <si>
     <t>Direktvermarkter im Kreis Tübingen</t>
   </si>
@@ -5363,6 +5363,9 @@
   </si>
   <si>
     <t>Kaiser_Alexander_Oel</t>
+  </si>
+  <si>
+    <t>Kemmler_Albrecht</t>
   </si>
 </sst>
 </file>
@@ -6599,32 +6602,32 @@
       <selection activeCell="F197" sqref="F197"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="25.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="25.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="28" style="20" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="23.5" customWidth="1"/>
-    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" customWidth="1"/>
-    <col min="8" max="8" width="30.1640625" customWidth="1"/>
-    <col min="9" max="9" width="18.5" customWidth="1"/>
-    <col min="10" max="10" width="22.5" customWidth="1"/>
-    <col min="11" max="11" width="9.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="19.83203125" customWidth="1"/>
-    <col min="13" max="13" width="20.5" customWidth="1"/>
-    <col min="14" max="15" width="17.5" customWidth="1"/>
-    <col min="16" max="16" width="15.5" customWidth="1"/>
-    <col min="17" max="17" width="23.5" customWidth="1"/>
-    <col min="21" max="21" width="12.83203125" customWidth="1"/>
-    <col min="22" max="22" width="8.5" customWidth="1"/>
-    <col min="23" max="23" width="11.83203125" customWidth="1"/>
-    <col min="24" max="24" width="9.5" customWidth="1"/>
-    <col min="25" max="25" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" customWidth="1"/>
+    <col min="5" max="5" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.81640625" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" customWidth="1"/>
+    <col min="8" max="8" width="30.1796875" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" customWidth="1"/>
+    <col min="10" max="10" width="22.453125" customWidth="1"/>
+    <col min="11" max="11" width="9.453125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="19.81640625" customWidth="1"/>
+    <col min="13" max="13" width="20.453125" customWidth="1"/>
+    <col min="14" max="15" width="17.453125" customWidth="1"/>
+    <col min="16" max="16" width="15.453125" customWidth="1"/>
+    <col min="17" max="17" width="23.453125" customWidth="1"/>
+    <col min="21" max="21" width="12.81640625" customWidth="1"/>
+    <col min="22" max="22" width="8.453125" customWidth="1"/>
+    <col min="23" max="23" width="11.81640625" customWidth="1"/>
+    <col min="24" max="24" width="9.453125" customWidth="1"/>
+    <col min="25" max="25" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -6635,7 +6638,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q2" s="178" t="s">
         <v>1</v>
       </c>
@@ -6646,7 +6649,7 @@
       </c>
       <c r="Y2" s="177"/>
     </row>
-    <row r="3" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -6723,7 +6726,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="58" t="s">
         <v>28</v>
       </c>
@@ -6752,7 +6755,7 @@
       <c r="X4" s="59"/>
       <c r="Y4" s="59"/>
     </row>
-    <row r="5" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="85" t="s">
         <v>29</v>
       </c>
@@ -6781,7 +6784,7 @@
       <c r="X5" s="75"/>
       <c r="Y5" s="75"/>
     </row>
-    <row r="6" spans="1:25" ht="80" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" ht="87" x14ac:dyDescent="0.35">
       <c r="A6" s="88" t="s">
         <v>30</v>
       </c>
@@ -6838,7 +6841,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="88" t="s">
         <v>43</v>
       </c>
@@ -6897,7 +6900,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="88" t="s">
         <v>53</v>
       </c>
@@ -6944,7 +6947,7 @@
       <c r="T8" s="100"/>
       <c r="U8" s="104"/>
     </row>
-    <row r="9" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="53" t="s">
         <v>62</v>
       </c>
@@ -6973,7 +6976,7 @@
       <c r="X9" s="54"/>
       <c r="Y9" s="54"/>
     </row>
-    <row r="10" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="88" t="s">
         <v>63</v>
       </c>
@@ -7028,7 +7031,7 @@
       <c r="X10" s="94"/>
       <c r="Y10" s="94"/>
     </row>
-    <row r="11" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="88" t="s">
         <v>72</v>
       </c>
@@ -7091,7 +7094,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="88" t="s">
         <v>80</v>
       </c>
@@ -7148,7 +7151,7 @@
       </c>
       <c r="Y12" s="104"/>
     </row>
-    <row r="13" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="88" t="s">
         <v>88</v>
       </c>
@@ -7205,7 +7208,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="64" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="106" t="s">
         <v>95</v>
       </c>
@@ -7264,7 +7267,7 @@
       <c r="X14" s="104"/>
       <c r="Y14" s="104"/>
     </row>
-    <row r="15" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="53" t="s">
         <v>104</v>
       </c>
@@ -7293,7 +7296,7 @@
       <c r="X15" s="54"/>
       <c r="Y15" s="55"/>
     </row>
-    <row r="16" spans="1:25" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" ht="105" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="106" t="s">
         <v>105</v>
       </c>
@@ -7354,7 +7357,7 @@
       <c r="X16" s="104"/>
       <c r="Y16" s="104"/>
     </row>
-    <row r="17" spans="1:25" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" ht="105" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="88" t="s">
         <v>117</v>
       </c>
@@ -7413,7 +7416,7 @@
       <c r="X17" s="104"/>
       <c r="Y17" s="104"/>
     </row>
-    <row r="18" spans="1:25" ht="168.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" ht="168.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="88" t="s">
         <v>126</v>
       </c>
@@ -7480,7 +7483,7 @@
       <c r="X18" s="104"/>
       <c r="Y18" s="104"/>
     </row>
-    <row r="19" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="53" t="s">
         <v>138</v>
       </c>
@@ -7509,7 +7512,7 @@
       <c r="X19" s="54"/>
       <c r="Y19" s="55"/>
     </row>
-    <row r="20" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="21" t="s">
         <v>139</v>
       </c>
@@ -7566,7 +7569,7 @@
       <c r="X20" s="6"/>
       <c r="Y20" s="6"/>
     </row>
-    <row r="21" spans="1:25" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" ht="135" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="112" t="s">
         <v>149</v>
       </c>
@@ -7629,7 +7632,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="80" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A22" s="112" t="s">
         <v>160</v>
       </c>
@@ -7694,7 +7697,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="87" t="s">
         <v>171</v>
       </c>
@@ -7723,7 +7726,7 @@
       <c r="X23" s="56"/>
       <c r="Y23" s="57"/>
     </row>
-    <row r="24" spans="1:25" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="21" t="s">
         <v>172</v>
       </c>
@@ -7792,7 +7795,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" s="87" t="s">
         <v>183</v>
       </c>
@@ -7821,7 +7824,7 @@
       <c r="X25" s="56"/>
       <c r="Y25" s="57"/>
     </row>
-    <row r="26" spans="1:25" ht="126" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" ht="126" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="21" t="s">
         <v>184</v>
       </c>
@@ -7888,7 +7891,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" ht="93" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
         <v>198</v>
       </c>
@@ -7953,7 +7956,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" s="27"/>
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
@@ -7980,7 +7983,7 @@
       <c r="X28" s="25"/>
       <c r="Y28" s="26"/>
     </row>
-    <row r="29" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="58" t="s">
         <v>210</v>
       </c>
@@ -8009,7 +8012,7 @@
       <c r="X29" s="59"/>
       <c r="Y29" s="60"/>
     </row>
-    <row r="30" spans="1:25" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" ht="140.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="23" t="s">
         <v>211</v>
       </c>
@@ -8070,7 +8073,7 @@
       <c r="X30" s="6"/>
       <c r="Y30" s="6"/>
     </row>
-    <row r="31" spans="1:25" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="23" t="s">
         <v>224</v>
       </c>
@@ -8129,7 +8132,7 @@
       <c r="X31" s="6"/>
       <c r="Y31" s="6"/>
     </row>
-    <row r="32" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="112" t="s">
         <v>234</v>
       </c>
@@ -8180,7 +8183,7 @@
       <c r="X32" s="6"/>
       <c r="Y32" s="6"/>
     </row>
-    <row r="33" spans="1:25" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" ht="106.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="119" t="s">
         <v>242</v>
       </c>
@@ -8243,7 +8246,7 @@
       <c r="X33" s="6"/>
       <c r="Y33" s="6"/>
     </row>
-    <row r="34" spans="1:25" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="119" t="s">
         <v>255</v>
       </c>
@@ -8294,7 +8297,7 @@
       <c r="X34" s="6"/>
       <c r="Y34" s="6"/>
     </row>
-    <row r="35" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" s="47"/>
       <c r="B35" s="49"/>
       <c r="C35" s="48"/>
@@ -8321,7 +8324,7 @@
       <c r="X35" s="7"/>
       <c r="Y35" s="7"/>
     </row>
-    <row r="36" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="62" t="s">
         <v>262</v>
       </c>
@@ -8350,7 +8353,7 @@
       <c r="X36" s="62"/>
       <c r="Y36" s="63"/>
     </row>
-    <row r="37" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="23" t="s">
         <v>263</v>
       </c>
@@ -8405,7 +8408,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23" t="s">
         <v>269</v>
       </c>
@@ -8462,7 +8465,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" ht="92.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="23" t="s">
         <v>276</v>
       </c>
@@ -8521,7 +8524,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A40" s="124" t="s">
         <v>287</v>
       </c>
@@ -8582,7 +8585,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A41" s="32"/>
       <c r="B41" s="25"/>
       <c r="C41" s="33"/>
@@ -8609,7 +8612,7 @@
       <c r="X41" s="7"/>
       <c r="Y41" s="7"/>
     </row>
-    <row r="42" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="62" t="s">
         <v>299</v>
       </c>
@@ -8638,7 +8641,7 @@
       <c r="X42" s="62"/>
       <c r="Y42" s="63"/>
     </row>
-    <row r="43" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="128" t="s">
         <v>300</v>
       </c>
@@ -8701,7 +8704,7 @@
       </c>
       <c r="Y43" s="6"/>
     </row>
-    <row r="44" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="129" t="s">
         <v>313</v>
       </c>
@@ -8762,7 +8765,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" ht="90.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="112" t="s">
         <v>322</v>
       </c>
@@ -8821,7 +8824,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="85" t="s">
         <v>333</v>
       </c>
@@ -8850,7 +8853,7 @@
       <c r="X46" s="54"/>
       <c r="Y46" s="55"/>
     </row>
-    <row r="47" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A47" s="21" t="s">
         <v>334</v>
       </c>
@@ -8911,7 +8914,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A48" s="36"/>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
@@ -8938,7 +8941,7 @@
       <c r="X48" s="7"/>
       <c r="Y48" s="7"/>
     </row>
-    <row r="49" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="62" t="s">
         <v>345</v>
       </c>
@@ -8967,7 +8970,7 @@
       <c r="X49" s="62"/>
       <c r="Y49" s="63"/>
     </row>
-    <row r="50" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="23" t="s">
         <v>346</v>
       </c>
@@ -9028,7 +9031,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="124" t="s">
         <v>353</v>
       </c>
@@ -9087,7 +9090,7 @@
       <c r="X51" s="6"/>
       <c r="Y51" s="6"/>
     </row>
-    <row r="52" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A52" s="38"/>
       <c r="B52" s="33"/>
       <c r="C52" s="33"/>
@@ -9114,7 +9117,7 @@
       <c r="X52" s="7"/>
       <c r="Y52" s="7"/>
     </row>
-    <row r="53" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="62" t="s">
         <v>364</v>
       </c>
@@ -9143,7 +9146,7 @@
       <c r="X53" s="62"/>
       <c r="Y53" s="63"/>
     </row>
-    <row r="54" spans="1:25" ht="96" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" ht="87" x14ac:dyDescent="0.35">
       <c r="A54" s="23" t="s">
         <v>365</v>
       </c>
@@ -9210,7 +9213,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="85" t="s">
         <v>378</v>
       </c>
@@ -9239,7 +9242,7 @@
       <c r="X55" s="54"/>
       <c r="Y55" s="55"/>
     </row>
-    <row r="56" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="21" t="s">
         <v>379</v>
       </c>
@@ -9298,7 +9301,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:25" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" ht="122.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="21" t="s">
         <v>391</v>
       </c>
@@ -9359,7 +9362,7 @@
       <c r="X57" s="6"/>
       <c r="Y57" s="6"/>
     </row>
-    <row r="58" spans="1:25" ht="168" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" ht="168" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="21" t="s">
         <v>403</v>
       </c>
@@ -9430,7 +9433,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="85" t="s">
         <v>418</v>
       </c>
@@ -9459,7 +9462,7 @@
       <c r="X59" s="54"/>
       <c r="Y59" s="55"/>
     </row>
-    <row r="60" spans="1:25" ht="64" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" ht="58" x14ac:dyDescent="0.35">
       <c r="A60" s="21" t="s">
         <v>419</v>
       </c>
@@ -9522,7 +9525,7 @@
       </c>
       <c r="Y60" s="6"/>
     </row>
-    <row r="61" spans="1:25" ht="80" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A61" s="21" t="s">
         <v>430</v>
       </c>
@@ -9583,7 +9586,7 @@
       <c r="X61" s="6"/>
       <c r="Y61" s="6"/>
     </row>
-    <row r="62" spans="1:25" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" ht="90.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="21" t="s">
         <v>439</v>
       </c>
@@ -9652,7 +9655,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="1:25" ht="64" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" ht="58" x14ac:dyDescent="0.35">
       <c r="A63" s="21" t="s">
         <v>452</v>
       </c>
@@ -9711,7 +9714,7 @@
       <c r="X63" s="6"/>
       <c r="Y63" s="6"/>
     </row>
-    <row r="64" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="42"/>
       <c r="B64" s="43"/>
       <c r="C64" s="43"/>
@@ -9738,7 +9741,7 @@
       <c r="X64" s="7"/>
       <c r="Y64" s="7"/>
     </row>
-    <row r="65" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="62" t="s">
         <v>462</v>
       </c>
@@ -9767,7 +9770,7 @@
       <c r="X65" s="62"/>
       <c r="Y65" s="62"/>
     </row>
-    <row r="66" spans="1:25" ht="80" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A66" s="112" t="s">
         <v>463</v>
       </c>
@@ -9838,7 +9841,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:25" ht="64" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25" ht="58" x14ac:dyDescent="0.35">
       <c r="A67" s="21" t="s">
         <v>476</v>
       </c>
@@ -9897,7 +9900,7 @@
       <c r="X67" s="6"/>
       <c r="Y67" s="6"/>
     </row>
-    <row r="68" spans="1:25" ht="64" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" ht="58" x14ac:dyDescent="0.35">
       <c r="A68" s="21" t="s">
         <v>486</v>
       </c>
@@ -9958,7 +9961,7 @@
       <c r="X68" s="6"/>
       <c r="Y68" s="6"/>
     </row>
-    <row r="69" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A69" s="132" t="s">
         <v>499</v>
       </c>
@@ -10011,7 +10014,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:25" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" ht="93.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="119" t="s">
         <v>507</v>
       </c>
@@ -10066,7 +10069,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:25" ht="259.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" ht="259.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="21" t="s">
         <v>517</v>
       </c>
@@ -10125,7 +10128,7 @@
       <c r="X71" s="6"/>
       <c r="Y71" s="6"/>
     </row>
-    <row r="72" spans="1:25" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25" ht="144" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="21" t="s">
         <v>527</v>
       </c>
@@ -10188,7 +10191,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="85" t="s">
         <v>538</v>
       </c>
@@ -10217,7 +10220,7 @@
       <c r="X73" s="54"/>
       <c r="Y73" s="55"/>
     </row>
-    <row r="74" spans="1:25" ht="130.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" ht="130.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="21" t="s">
         <v>539</v>
       </c>
@@ -10280,7 +10283,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="75" spans="1:25" ht="108.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" ht="108.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="21" t="s">
         <v>547</v>
       </c>
@@ -10341,7 +10344,7 @@
       <c r="X75" s="6"/>
       <c r="Y75" s="6"/>
     </row>
-    <row r="76" spans="1:25" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="21" t="s">
         <v>556</v>
       </c>
@@ -10404,7 +10407,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="1:25" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="21" t="s">
         <v>566</v>
       </c>
@@ -10465,7 +10468,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="78" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="85" t="s">
         <v>575</v>
       </c>
@@ -10494,7 +10497,7 @@
       <c r="X78" s="54"/>
       <c r="Y78" s="55"/>
     </row>
-    <row r="79" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A79" s="21" t="s">
         <v>576</v>
       </c>
@@ -10553,7 +10556,7 @@
       <c r="X79" s="6"/>
       <c r="Y79" s="6"/>
     </row>
-    <row r="80" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="135" t="s">
         <v>586</v>
       </c>
@@ -10614,7 +10617,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="81" spans="1:25" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25" ht="93" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="21" t="s">
         <v>594</v>
       </c>
@@ -10679,7 +10682,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="1:25" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25" ht="93.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="21" t="s">
         <v>603</v>
       </c>
@@ -10740,7 +10743,7 @@
       <c r="X82" s="6"/>
       <c r="Y82" s="6"/>
     </row>
-    <row r="83" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="68"/>
       <c r="B83" s="69"/>
       <c r="C83" s="69"/>
@@ -10767,7 +10770,7 @@
       <c r="X83" s="71"/>
       <c r="Y83" s="71"/>
     </row>
-    <row r="84" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="62" t="s">
         <v>613</v>
       </c>
@@ -10796,7 +10799,7 @@
       <c r="X84" s="62"/>
       <c r="Y84" s="63"/>
     </row>
-    <row r="85" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="84" t="s">
         <v>614</v>
       </c>
@@ -10825,7 +10828,7 @@
       <c r="X85" s="73"/>
       <c r="Y85" s="74"/>
     </row>
-    <row r="86" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="21" t="s">
         <v>615</v>
       </c>
@@ -10884,7 +10887,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="1:25" ht="80" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:25" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A87" s="21" t="s">
         <v>624</v>
       </c>
@@ -10943,11 +10946,11 @@
       <c r="X87" s="6"/>
       <c r="Y87" s="6"/>
     </row>
-    <row r="88" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88"/>
       <c r="K88"/>
     </row>
-    <row r="89" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="85" t="s">
         <v>635</v>
       </c>
@@ -10976,7 +10979,7 @@
       <c r="X89" s="54"/>
       <c r="Y89" s="55"/>
     </row>
-    <row r="90" spans="1:25" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:25" ht="140.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="21" t="s">
         <v>636</v>
       </c>
@@ -11041,7 +11044,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A91" s="137" t="s">
         <v>649</v>
       </c>
@@ -11098,7 +11101,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="92" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="21"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -11125,7 +11128,7 @@
       <c r="X92" s="6"/>
       <c r="Y92" s="6"/>
     </row>
-    <row r="93" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="61" t="s">
         <v>656</v>
       </c>
@@ -11154,7 +11157,7 @@
       <c r="X93" s="62"/>
       <c r="Y93" s="63"/>
     </row>
-    <row r="94" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:25" ht="58" x14ac:dyDescent="0.35">
       <c r="A94" s="21" t="s">
         <v>657</v>
       </c>
@@ -11209,7 +11212,7 @@
       <c r="X94" s="6"/>
       <c r="Y94" s="6"/>
     </row>
-    <row r="95" spans="1:25" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:25" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="21" t="s">
         <v>666</v>
       </c>
@@ -11270,7 +11273,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="96" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A96" s="21" t="s">
         <v>675</v>
       </c>
@@ -11327,7 +11330,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="97" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="21"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -11354,7 +11357,7 @@
       <c r="X97" s="6"/>
       <c r="Y97" s="6"/>
     </row>
-    <row r="98" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="61" t="s">
         <v>683</v>
       </c>
@@ -11383,7 +11386,7 @@
       <c r="X98" s="62"/>
       <c r="Y98" s="63"/>
     </row>
-    <row r="99" spans="1:25" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:25" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="21" t="s">
         <v>684</v>
       </c>
@@ -11430,7 +11433,7 @@
       <c r="V99" s="6"/>
       <c r="Y99" s="6"/>
     </row>
-    <row r="100" spans="1:25" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:25" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="112" t="s">
         <v>692</v>
       </c>
@@ -11495,7 +11498,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="101" spans="1:25" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:25" ht="138.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="21" t="s">
         <v>702</v>
       </c>
@@ -11560,7 +11563,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="102" spans="1:25" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:25" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="21" t="s">
         <v>715</v>
       </c>
@@ -11623,7 +11626,7 @@
       <c r="X102" s="6"/>
       <c r="Y102" s="6"/>
     </row>
-    <row r="103" spans="1:25" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:25" ht="164.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="119" t="s">
         <v>725</v>
       </c>
@@ -11688,7 +11691,7 @@
       <c r="X103" s="6"/>
       <c r="Y103" s="6"/>
     </row>
-    <row r="104" spans="1:25" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:25" ht="93.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="119" t="s">
         <v>738</v>
       </c>
@@ -11747,7 +11750,7 @@
       <c r="X104" s="6"/>
       <c r="Y104" s="6"/>
     </row>
-    <row r="105" spans="1:25" ht="80" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:25" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A105" s="119" t="s">
         <v>747</v>
       </c>
@@ -11801,7 +11804,7 @@
       <c r="X105" s="6"/>
       <c r="Y105" s="6"/>
     </row>
-    <row r="106" spans="1:25" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:25" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="119" t="s">
         <v>758</v>
       </c>
@@ -11858,7 +11861,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="107" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A107" s="53" t="s">
         <v>765</v>
       </c>
@@ -11887,7 +11890,7 @@
       <c r="X107" s="64"/>
       <c r="Y107" s="64"/>
     </row>
-    <row r="108" spans="1:25" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:25" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="119" t="s">
         <v>766</v>
       </c>
@@ -11946,7 +11949,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="109" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A109" s="53" t="s">
         <v>775</v>
       </c>
@@ -11975,7 +11978,7 @@
       <c r="X109" s="64"/>
       <c r="Y109" s="64"/>
     </row>
-    <row r="110" spans="1:25" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:25" ht="93" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="21" t="s">
         <v>776</v>
       </c>
@@ -12040,7 +12043,7 @@
       <c r="X110" s="8"/>
       <c r="Y110" s="8"/>
     </row>
-    <row r="111" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A111" s="53" t="s">
         <v>789</v>
       </c>
@@ -12069,7 +12072,7 @@
       <c r="X111" s="54"/>
       <c r="Y111" s="55"/>
     </row>
-    <row r="112" spans="1:25" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:25" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="140" t="s">
         <v>790</v>
       </c>
@@ -12134,7 +12137,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="113" spans="1:25" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:25" ht="95.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="21" t="s">
         <v>801</v>
       </c>
@@ -12199,7 +12202,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="114" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A114" s="21" t="s">
         <v>813</v>
       </c>
@@ -12264,7 +12267,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="115" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A115" s="85" t="s">
         <v>823</v>
       </c>
@@ -12293,7 +12296,7 @@
       <c r="X115" s="54"/>
       <c r="Y115" s="55"/>
     </row>
-    <row r="116" spans="1:25" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:25" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="119" t="s">
         <v>824</v>
       </c>
@@ -12358,7 +12361,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="117" spans="1:25" ht="80" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:25" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A117" s="21" t="s">
         <v>835</v>
       </c>
@@ -12421,7 +12424,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="118" spans="1:25" ht="80" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:25" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A118" s="21" t="s">
         <v>844</v>
       </c>
@@ -12484,7 +12487,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="119" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A119" s="147" t="s">
         <v>855</v>
       </c>
@@ -12513,7 +12516,7 @@
       <c r="X119" s="55"/>
       <c r="Y119" s="46"/>
     </row>
-    <row r="120" spans="1:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="21" t="s">
         <v>856</v>
       </c>
@@ -12568,7 +12571,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="121" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A121" s="53" t="s">
         <v>862</v>
       </c>
@@ -12597,7 +12600,7 @@
       <c r="X121" s="46"/>
       <c r="Y121" s="46"/>
     </row>
-    <row r="122" spans="1:25" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:25" ht="106.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="21" t="s">
         <v>863</v>
       </c>
@@ -12666,7 +12669,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="123" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A123" s="85" t="s">
         <v>877</v>
       </c>
@@ -12695,7 +12698,7 @@
       <c r="X123" s="54"/>
       <c r="Y123" s="55"/>
     </row>
-    <row r="124" spans="1:25" ht="96" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:25" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A124" s="141" t="s">
         <v>878</v>
       </c>
@@ -12753,7 +12756,7 @@
       <c r="X124" s="6"/>
       <c r="Y124" s="6"/>
     </row>
-    <row r="125" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A125" s="53" t="s">
         <v>889</v>
       </c>
@@ -12782,7 +12785,7 @@
       <c r="X125" s="54"/>
       <c r="Y125" s="55"/>
     </row>
-    <row r="126" spans="1:25" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:25" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="21" t="s">
         <v>890</v>
       </c>
@@ -12836,7 +12839,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="127" spans="1:25" ht="64" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:25" ht="58" x14ac:dyDescent="0.35">
       <c r="A127" s="112" t="s">
         <v>899</v>
       </c>
@@ -12897,7 +12900,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="128" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A128" s="53" t="s">
         <v>906</v>
       </c>
@@ -12926,7 +12929,7 @@
       <c r="X128" s="54"/>
       <c r="Y128" s="55"/>
     </row>
-    <row r="129" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="21" t="s">
         <v>907</v>
       </c>
@@ -12979,7 +12982,7 @@
       <c r="X129" s="6"/>
       <c r="Y129" s="6"/>
     </row>
-    <row r="130" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A130" s="53" t="s">
         <v>914</v>
       </c>
@@ -13008,7 +13011,7 @@
       <c r="X130" s="54"/>
       <c r="Y130" s="55"/>
     </row>
-    <row r="131" spans="1:25" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:25" ht="77.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="141" t="s">
         <v>211</v>
       </c>
@@ -13069,7 +13072,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="132" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A132" s="21" t="s">
         <v>923</v>
       </c>
@@ -13120,7 +13123,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="133" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A133" s="85" t="s">
         <v>930</v>
       </c>
@@ -13149,7 +13152,7 @@
       <c r="X133" s="54"/>
       <c r="Y133" s="55"/>
     </row>
-    <row r="134" spans="1:25" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:25" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="112" t="s">
         <v>931</v>
       </c>
@@ -13210,7 +13213,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="135" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="21" t="s">
         <v>941</v>
       </c>
@@ -13269,7 +13272,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="136" spans="1:25" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:25" ht="74.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="141" t="s">
         <v>948</v>
       </c>
@@ -13330,7 +13333,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="137" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="23"/>
       <c r="B137" s="39"/>
       <c r="C137" s="39"/>
@@ -13357,7 +13360,7 @@
       <c r="X137" s="7"/>
       <c r="Y137" s="7"/>
     </row>
-    <row r="138" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="61" t="s">
         <v>954</v>
       </c>
@@ -13386,7 +13389,7 @@
       <c r="X138" s="78"/>
       <c r="Y138" s="79"/>
     </row>
-    <row r="139" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A139" s="53" t="s">
         <v>955</v>
       </c>
@@ -13415,7 +13418,7 @@
       <c r="X139" s="56"/>
       <c r="Y139" s="57"/>
     </row>
-    <row r="140" spans="1:25" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:25" ht="121.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="21" t="s">
         <v>956</v>
       </c>
@@ -13478,7 +13481,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="141" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A141" s="21" t="s">
         <v>966</v>
       </c>
@@ -13537,7 +13540,7 @@
       <c r="X141" s="6"/>
       <c r="Y141" s="6"/>
     </row>
-    <row r="142" spans="1:25" ht="64" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:25" ht="58" x14ac:dyDescent="0.35">
       <c r="A142" s="21" t="s">
         <v>977</v>
       </c>
@@ -13598,7 +13601,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="143" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="21" t="s">
         <v>924</v>
       </c>
@@ -13651,7 +13654,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="144" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A144" s="53" t="s">
         <v>993</v>
       </c>
@@ -13680,7 +13683,7 @@
       <c r="X144" s="64"/>
       <c r="Y144" s="80"/>
     </row>
-    <row r="145" spans="1:25" ht="128" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:25" ht="116" x14ac:dyDescent="0.35">
       <c r="A145" s="21" t="s">
         <v>994</v>
       </c>
@@ -13747,7 +13750,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="146" spans="1:25" ht="64" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:25" ht="58" x14ac:dyDescent="0.35">
       <c r="A146" s="21" t="s">
         <v>1006</v>
       </c>
@@ -13814,7 +13817,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="147" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="21"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
@@ -13841,7 +13844,7 @@
       <c r="X147" s="7"/>
       <c r="Y147" s="7"/>
     </row>
-    <row r="148" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="61" t="s">
         <v>1017</v>
       </c>
@@ -13870,7 +13873,7 @@
       <c r="X148" s="62"/>
       <c r="Y148" s="63"/>
     </row>
-    <row r="149" spans="1:25" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:25" ht="107.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="21" t="s">
         <v>1018</v>
       </c>
@@ -13937,7 +13940,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="150" spans="1:25" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:25" ht="107.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="21" t="s">
         <v>1031</v>
       </c>
@@ -13998,7 +14001,7 @@
       </c>
       <c r="Y150" s="8"/>
     </row>
-    <row r="151" spans="1:25" ht="64" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:25" ht="58" x14ac:dyDescent="0.35">
       <c r="A151" s="21" t="s">
         <v>1041</v>
       </c>
@@ -14057,7 +14060,7 @@
       <c r="X151" s="6"/>
       <c r="Y151" s="6"/>
     </row>
-    <row r="152" spans="1:25" ht="80" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:25" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A152" s="88" t="s">
         <v>1052</v>
       </c>
@@ -14110,7 +14113,7 @@
       </c>
       <c r="U152" s="94"/>
     </row>
-    <row r="153" spans="1:25" ht="96" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:25" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A153" s="21" t="s">
         <v>1062</v>
       </c>
@@ -14173,7 +14176,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="154" spans="1:25" ht="96" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:25" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A154" s="21" t="s">
         <v>1073</v>
       </c>
@@ -14232,7 +14235,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="155" spans="1:25" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:25" ht="78.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="21" t="s">
         <v>1082</v>
       </c>
@@ -14301,7 +14304,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="156" spans="1:25" ht="64" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:25" ht="58" x14ac:dyDescent="0.35">
       <c r="A156" s="112" t="s">
         <v>1092</v>
       </c>
@@ -14360,7 +14363,7 @@
       <c r="X156" s="6"/>
       <c r="Y156" s="6"/>
     </row>
-    <row r="157" spans="1:25" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:25" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="112" t="s">
         <v>1104</v>
       </c>
@@ -14415,7 +14418,7 @@
       <c r="X157" s="6"/>
       <c r="Y157" s="6"/>
     </row>
-    <row r="158" spans="1:25" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:25" ht="124.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="119" t="s">
         <v>1112</v>
       </c>
@@ -14480,7 +14483,7 @@
       <c r="X158" s="6"/>
       <c r="Y158" s="6"/>
     </row>
-    <row r="159" spans="1:25" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:25" ht="103.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="112" t="s">
         <v>1124</v>
       </c>
@@ -14534,7 +14537,7 @@
       <c r="X159" s="6"/>
       <c r="Y159" s="6"/>
     </row>
-    <row r="160" spans="1:25" ht="166.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:25" ht="166.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="21" t="s">
         <v>1132</v>
       </c>
@@ -14597,7 +14600,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="161" spans="1:26" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:26" ht="81.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="21" t="s">
         <v>1144</v>
       </c>
@@ -14654,7 +14657,7 @@
       <c r="X161" s="6"/>
       <c r="Y161" s="6"/>
     </row>
-    <row r="162" spans="1:26" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:26" ht="137.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="112" t="s">
         <v>1153</v>
       </c>
@@ -14715,7 +14718,7 @@
       <c r="X162" s="6"/>
       <c r="Y162" s="6"/>
     </row>
-    <row r="163" spans="1:26" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:26" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="21" t="s">
         <v>1164</v>
       </c>
@@ -14780,7 +14783,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="164" spans="1:26" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:26" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="21" t="s">
         <v>1174</v>
       </c>
@@ -14844,7 +14847,7 @@
       </c>
       <c r="Z164" s="83"/>
     </row>
-    <row r="165" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A165" s="53" t="s">
         <v>1183</v>
       </c>
@@ -14873,7 +14876,7 @@
       <c r="X165" s="54"/>
       <c r="Y165" s="55"/>
     </row>
-    <row r="166" spans="1:26" ht="96" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:26" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A166" s="21" t="s">
         <v>1184</v>
       </c>
@@ -14930,7 +14933,7 @@
       <c r="X166" s="71"/>
       <c r="Y166" s="71"/>
     </row>
-    <row r="167" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A167" s="53" t="s">
         <v>1196</v>
       </c>
@@ -14959,7 +14962,7 @@
       <c r="X167" s="54"/>
       <c r="Y167" s="55"/>
     </row>
-    <row r="168" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="141" t="s">
         <v>1197</v>
       </c>
@@ -15018,7 +15021,7 @@
       <c r="X168" s="6"/>
       <c r="Y168" s="6"/>
     </row>
-    <row r="169" spans="1:26" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:26" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="21" t="s">
         <v>1204</v>
       </c>
@@ -15089,7 +15092,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="170" spans="1:26" ht="64" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:26" ht="58" x14ac:dyDescent="0.35">
       <c r="A170" s="21" t="s">
         <v>1215</v>
       </c>
@@ -15150,7 +15153,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="171" spans="1:26" ht="155.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:26" ht="155.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="112" t="s">
         <v>1224</v>
       </c>
@@ -15217,7 +15220,7 @@
       <c r="X171" s="6"/>
       <c r="Y171" s="6"/>
     </row>
-    <row r="172" spans="1:26" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:26" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="112" t="s">
         <v>1236</v>
       </c>
@@ -15278,7 +15281,7 @@
       <c r="X172" s="6"/>
       <c r="Y172" s="6"/>
     </row>
-    <row r="173" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A173" s="53" t="s">
         <v>1245</v>
       </c>
@@ -15307,7 +15310,7 @@
       <c r="X173" s="54"/>
       <c r="Y173" s="55"/>
     </row>
-    <row r="174" spans="1:26" ht="112" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:26" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A174" s="21" t="s">
         <v>1246</v>
       </c>
@@ -15366,7 +15369,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="175" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="112" t="s">
         <v>1254</v>
       </c>
@@ -15427,7 +15430,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="176" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A176" s="53" t="s">
         <v>1262</v>
       </c>
@@ -15456,7 +15459,7 @@
       <c r="X176" s="54"/>
       <c r="Y176" s="55"/>
     </row>
-    <row r="177" spans="1:25" ht="64" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:25" ht="58" x14ac:dyDescent="0.35">
       <c r="A177" s="21" t="s">
         <v>1263</v>
       </c>
@@ -15525,7 +15528,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="178" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A178" s="53" t="s">
         <v>1277</v>
       </c>
@@ -15554,7 +15557,7 @@
       <c r="X178" s="54"/>
       <c r="Y178" s="55"/>
     </row>
-    <row r="179" spans="1:25" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:25" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="21" t="s">
         <v>1278</v>
       </c>
@@ -15623,7 +15626,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="180" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="21" t="s">
         <v>1291</v>
       </c>
@@ -15682,7 +15685,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="181" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A181" s="53" t="s">
         <v>1297</v>
       </c>
@@ -15711,7 +15714,7 @@
       <c r="X181" s="54"/>
       <c r="Y181" s="55"/>
     </row>
-    <row r="182" spans="1:25" ht="48" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:25" ht="58" x14ac:dyDescent="0.35">
       <c r="A182" s="21" t="s">
         <v>1298</v>
       </c>
@@ -15772,7 +15775,7 @@
       <c r="X182" s="6"/>
       <c r="Y182" s="6"/>
     </row>
-    <row r="183" spans="1:25" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:25" ht="98.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="21" t="s">
         <v>1311</v>
       </c>
@@ -15828,7 +15831,7 @@
       </c>
       <c r="Y183" s="6"/>
     </row>
-    <row r="184" spans="1:25" ht="96" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:25" ht="87" x14ac:dyDescent="0.35">
       <c r="A184" s="119" t="s">
         <v>1320</v>
       </c>
@@ -15893,7 +15896,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="185" spans="1:25" ht="80" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:25" ht="87" x14ac:dyDescent="0.35">
       <c r="A185" s="21" t="s">
         <v>1331</v>
       </c>
@@ -15952,7 +15955,7 @@
       <c r="X185" s="6"/>
       <c r="Y185" s="6"/>
     </row>
-    <row r="186" spans="1:25" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:25" ht="136.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="21" t="s">
         <v>1340</v>
       </c>
@@ -16021,7 +16024,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="187" spans="1:25" ht="128" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:25" ht="145" x14ac:dyDescent="0.35">
       <c r="A187" s="112" t="s">
         <v>1351</v>
       </c>
@@ -16078,7 +16081,7 @@
       <c r="X187" s="6"/>
       <c r="Y187" s="6"/>
     </row>
-    <row r="188" spans="1:25" ht="96" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:25" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A188" s="112" t="s">
         <v>1360</v>
       </c>
@@ -16145,7 +16148,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="189" spans="1:25" ht="128" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:25" ht="116" x14ac:dyDescent="0.35">
       <c r="A189" s="112" t="s">
         <v>1368</v>
       </c>
@@ -16204,7 +16207,7 @@
       <c r="X189" s="6"/>
       <c r="Y189" s="6"/>
     </row>
-    <row r="190" spans="1:25" ht="80" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:25" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A190" s="21" t="s">
         <v>1377</v>
       </c>
@@ -16263,7 +16266,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="191" spans="1:25" ht="64" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:25" ht="58" x14ac:dyDescent="0.35">
       <c r="A191" s="21" t="s">
         <v>1386</v>
       </c>
@@ -16324,7 +16327,7 @@
       <c r="X191" s="8"/>
       <c r="Y191" s="8"/>
     </row>
-    <row r="192" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A192" s="53" t="s">
         <v>1395</v>
       </c>
@@ -16353,7 +16356,7 @@
       <c r="X192" s="54"/>
       <c r="Y192" s="55"/>
     </row>
-    <row r="193" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="21" t="s">
         <v>1396</v>
       </c>
@@ -16410,7 +16413,7 @@
       <c r="X193" s="6"/>
       <c r="Y193" s="6"/>
     </row>
-    <row r="194" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="22"/>
       <c r="B194" s="17"/>
       <c r="C194" s="17"/>
@@ -16437,7 +16440,7 @@
       <c r="X194" s="7"/>
       <c r="Y194" s="7"/>
     </row>
-    <row r="195" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="22"/>
       <c r="B195" s="17"/>
       <c r="C195" s="17"/>
@@ -16464,7 +16467,7 @@
       <c r="X195" s="7"/>
       <c r="Y195" s="7"/>
     </row>
-    <row r="196" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="22"/>
       <c r="B196" s="17"/>
       <c r="C196" s="17"/>
@@ -16491,7 +16494,7 @@
       <c r="X196" s="7"/>
       <c r="Y196" s="7"/>
     </row>
-    <row r="197" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="22"/>
       <c r="B197" s="17"/>
       <c r="C197" s="17"/>
@@ -16518,217 +16521,217 @@
       <c r="X197" s="7"/>
       <c r="Y197" s="7"/>
     </row>
-    <row r="198" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="V198" s="7"/>
       <c r="W198" s="7"/>
       <c r="X198" s="7"/>
       <c r="Y198" s="7"/>
     </row>
-    <row r="199" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="V199" s="7"/>
       <c r="W199" s="7"/>
       <c r="X199" s="7"/>
       <c r="Y199" s="7"/>
     </row>
-    <row r="200" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="V200" s="7"/>
       <c r="W200" s="7"/>
       <c r="X200" s="7"/>
       <c r="Y200" s="7"/>
     </row>
-    <row r="201" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="V201" s="7"/>
       <c r="W201" s="7"/>
       <c r="X201" s="7"/>
       <c r="Y201" s="7"/>
     </row>
-    <row r="202" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="V202" s="7"/>
       <c r="W202" s="7"/>
       <c r="X202" s="7"/>
       <c r="Y202" s="7"/>
     </row>
-    <row r="203" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="V203" s="7"/>
       <c r="W203" s="7"/>
       <c r="X203" s="7"/>
       <c r="Y203" s="7"/>
     </row>
-    <row r="204" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="V204" s="7"/>
       <c r="W204" s="7"/>
       <c r="X204" s="7"/>
       <c r="Y204" s="7"/>
     </row>
-    <row r="205" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="V205" s="7"/>
       <c r="W205" s="7"/>
       <c r="X205" s="7"/>
       <c r="Y205" s="7"/>
     </row>
-    <row r="206" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="V206" s="7"/>
       <c r="W206" s="7"/>
       <c r="X206" s="7"/>
       <c r="Y206" s="7"/>
     </row>
-    <row r="207" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="V207" s="7"/>
       <c r="W207" s="7"/>
       <c r="X207" s="7"/>
       <c r="Y207" s="7"/>
     </row>
-    <row r="208" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="V208" s="7"/>
       <c r="W208" s="7"/>
       <c r="X208" s="7"/>
       <c r="Y208" s="7"/>
     </row>
-    <row r="209" spans="22:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="22:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="V209" s="7"/>
       <c r="W209" s="7"/>
       <c r="X209" s="7"/>
       <c r="Y209" s="7"/>
     </row>
-    <row r="210" spans="22:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="22:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="V210" s="7"/>
       <c r="W210" s="7"/>
       <c r="X210" s="7"/>
       <c r="Y210" s="7"/>
     </row>
-    <row r="211" spans="22:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="22:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="V211" s="7"/>
       <c r="W211" s="7"/>
       <c r="X211" s="7"/>
       <c r="Y211" s="7"/>
     </row>
-    <row r="212" spans="22:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="22:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="V212" s="7"/>
       <c r="W212" s="7"/>
       <c r="X212" s="7"/>
       <c r="Y212" s="7"/>
     </row>
-    <row r="213" spans="22:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="22:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="V213" s="7"/>
       <c r="W213" s="7"/>
       <c r="X213" s="7"/>
       <c r="Y213" s="7"/>
     </row>
-    <row r="214" spans="22:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="22:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="V214" s="7"/>
       <c r="W214" s="7"/>
       <c r="X214" s="7"/>
       <c r="Y214" s="7"/>
     </row>
-    <row r="215" spans="22:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="22:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="V215" s="7"/>
       <c r="W215" s="7"/>
       <c r="X215" s="7"/>
       <c r="Y215" s="7"/>
     </row>
-    <row r="216" spans="22:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="22:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="V216" s="7"/>
       <c r="W216" s="7"/>
       <c r="X216" s="7"/>
       <c r="Y216" s="7"/>
     </row>
-    <row r="217" spans="22:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="22:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="V217" s="7"/>
       <c r="W217" s="7"/>
       <c r="X217" s="7"/>
       <c r="Y217" s="7"/>
     </row>
-    <row r="218" spans="22:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="22:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="V218" s="7"/>
       <c r="W218" s="7"/>
       <c r="X218" s="7"/>
       <c r="Y218" s="7"/>
     </row>
-    <row r="219" spans="22:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="22:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="V219" s="7"/>
       <c r="W219" s="7"/>
       <c r="X219" s="7"/>
       <c r="Y219" s="7"/>
     </row>
-    <row r="220" spans="22:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="22:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="V220" s="7"/>
       <c r="W220" s="7"/>
       <c r="X220" s="7"/>
       <c r="Y220" s="7"/>
     </row>
-    <row r="221" spans="22:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="22:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="V221" s="7"/>
       <c r="W221" s="7"/>
       <c r="X221" s="7"/>
       <c r="Y221" s="7"/>
     </row>
-    <row r="222" spans="22:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="22:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="V222" s="7"/>
       <c r="W222" s="7"/>
       <c r="X222" s="7"/>
       <c r="Y222" s="7"/>
     </row>
-    <row r="223" spans="22:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="22:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="V223" s="7"/>
       <c r="W223" s="7"/>
       <c r="X223" s="7"/>
       <c r="Y223" s="7"/>
     </row>
-    <row r="224" spans="22:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="22:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="V224" s="7"/>
       <c r="W224" s="7"/>
       <c r="X224" s="7"/>
       <c r="Y224" s="7"/>
     </row>
-    <row r="225" spans="22:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="22:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="V225" s="7"/>
       <c r="W225" s="7"/>
       <c r="X225" s="7"/>
       <c r="Y225" s="7"/>
     </row>
-    <row r="226" spans="22:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="22:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="V226" s="7"/>
       <c r="W226" s="7"/>
       <c r="X226" s="7"/>
       <c r="Y226" s="7"/>
     </row>
-    <row r="227" spans="22:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="22:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="V227" s="7"/>
       <c r="W227" s="7"/>
       <c r="X227" s="7"/>
       <c r="Y227" s="7"/>
     </row>
-    <row r="228" spans="22:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="22:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="V228" s="7"/>
       <c r="W228" s="7"/>
       <c r="X228" s="7"/>
       <c r="Y228" s="7"/>
     </row>
-    <row r="229" spans="22:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="22:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="V229" s="7"/>
       <c r="W229" s="7"/>
       <c r="X229" s="7"/>
       <c r="Y229" s="7"/>
     </row>
-    <row r="230" spans="22:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="22:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="V230" s="7"/>
       <c r="W230" s="7"/>
       <c r="X230" s="7"/>
       <c r="Y230" s="7"/>
     </row>
-    <row r="231" spans="22:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="22:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="V231" s="7"/>
       <c r="W231" s="7"/>
       <c r="X231" s="7"/>
       <c r="Y231" s="7"/>
     </row>
-    <row r="238" spans="22:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="22:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="V238" s="7"/>
       <c r="W238" s="7"/>
       <c r="X238" s="7"/>
       <c r="Y238" s="7"/>
     </row>
-    <row r="240" spans="22:25" ht="48" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" spans="22:25" ht="48" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:X26">
     <sortCondition sortBy="cellColor" ref="A5:A92" dxfId="1"/>
@@ -16942,36 +16945,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C81" sqref="C81"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="25.1640625" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="25.1796875" defaultRowHeight="23.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" style="166"/>
+    <col min="1" max="1" width="25.1796875" style="166"/>
     <col min="2" max="3" width="28" style="20" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="27.5" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="16.1640625" customWidth="1"/>
-    <col min="13" max="13" width="30.1640625" customWidth="1"/>
-    <col min="14" max="14" width="18.5" customWidth="1"/>
-    <col min="15" max="15" width="22.5" customWidth="1"/>
-    <col min="16" max="16" width="19.83203125" customWidth="1"/>
-    <col min="17" max="17" width="20.5" customWidth="1"/>
-    <col min="18" max="18" width="17.5" customWidth="1"/>
-    <col min="19" max="19" width="15.5" customWidth="1"/>
-    <col min="20" max="20" width="23.5" customWidth="1"/>
-    <col min="23" max="23" width="31.5" style="165" customWidth="1"/>
-    <col min="24" max="24" width="26.5" customWidth="1"/>
-    <col min="25" max="25" width="16.5" customWidth="1"/>
-    <col min="26" max="26" width="19.5" customWidth="1"/>
-    <col min="27" max="28" width="24.5" customWidth="1"/>
+    <col min="6" max="6" width="27.453125" customWidth="1"/>
+    <col min="7" max="7" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="16.1796875" customWidth="1"/>
+    <col min="13" max="13" width="30.1796875" customWidth="1"/>
+    <col min="14" max="14" width="18.453125" customWidth="1"/>
+    <col min="15" max="15" width="22.453125" customWidth="1"/>
+    <col min="16" max="16" width="19.81640625" customWidth="1"/>
+    <col min="17" max="17" width="20.453125" customWidth="1"/>
+    <col min="18" max="18" width="17.453125" customWidth="1"/>
+    <col min="19" max="19" width="15.453125" customWidth="1"/>
+    <col min="20" max="20" width="23.453125" customWidth="1"/>
+    <col min="23" max="23" width="31.453125" style="165" customWidth="1"/>
+    <col min="24" max="24" width="26.453125" customWidth="1"/>
+    <col min="25" max="25" width="16.453125" customWidth="1"/>
+    <col min="26" max="26" width="19.453125" customWidth="1"/>
+    <col min="27" max="28" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="166" t="s">
         <v>1404</v>
       </c>
@@ -17057,10 +17060,16 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="166">
+        <v>1</v>
+      </c>
       <c r="B2" s="20" t="s">
         <v>1678</v>
       </c>
+      <c r="C2" s="20" t="s">
+        <v>1683</v>
+      </c>
       <c r="D2" s="8" t="s">
         <v>440</v>
       </c>
@@ -17107,7 +17116,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="48" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="43.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="166">
         <v>2</v>
       </c>
@@ -17178,7 +17187,7 @@
       <c r="AA3" s="99"/>
       <c r="AB3" s="171"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="166">
         <v>3</v>
       </c>
@@ -17241,7 +17250,7 @@
       <c r="AA4" s="104"/>
       <c r="AB4" s="171"/>
     </row>
-    <row r="5" spans="1:28" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="166">
         <v>4</v>
       </c>
@@ -17310,7 +17319,7 @@
       </c>
       <c r="AB5" s="171"/>
     </row>
-    <row r="6" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="166">
         <v>5</v>
       </c>
@@ -17383,7 +17392,7 @@
       <c r="AA6" s="94"/>
       <c r="AB6" s="171"/>
     </row>
-    <row r="7" spans="1:28" ht="32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" ht="29" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="166">
         <v>6</v>
       </c>
@@ -17452,7 +17461,7 @@
       </c>
       <c r="AB7" s="172"/>
     </row>
-    <row r="8" spans="1:28" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" ht="105" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="166">
         <v>7</v>
       </c>
@@ -17521,7 +17530,7 @@
       </c>
       <c r="AB8" s="171"/>
     </row>
-    <row r="9" spans="1:28" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" ht="105" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="166">
         <v>8</v>
       </c>
@@ -17594,7 +17603,7 @@
       <c r="AA9" s="104"/>
       <c r="AB9" s="171"/>
     </row>
-    <row r="10" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="166">
         <v>9</v>
       </c>
@@ -17669,7 +17678,7 @@
       </c>
       <c r="AB10" s="171"/>
     </row>
-    <row r="11" spans="1:28" ht="135" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" ht="135" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="166">
         <v>10</v>
       </c>
@@ -17742,7 +17751,7 @@
       </c>
       <c r="AB11" s="171"/>
     </row>
-    <row r="12" spans="1:28" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" ht="139.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="166">
         <v>11</v>
       </c>
@@ -17819,7 +17828,7 @@
       </c>
       <c r="AB12" s="171"/>
     </row>
-    <row r="13" spans="1:28" ht="126" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" ht="126" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="166">
         <v>12</v>
       </c>
@@ -17890,7 +17899,7 @@
       </c>
       <c r="AB13" s="173"/>
     </row>
-    <row r="14" spans="1:28" ht="93" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" ht="93" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="166">
         <v>13</v>
       </c>
@@ -17963,7 +17972,7 @@
       <c r="AA14" s="6"/>
       <c r="AB14" s="173"/>
     </row>
-    <row r="15" spans="1:28" ht="140.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" ht="140.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="166">
         <v>14</v>
       </c>
@@ -18038,7 +18047,7 @@
       </c>
       <c r="AB15" s="173"/>
     </row>
-    <row r="16" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="166">
         <v>15</v>
       </c>
@@ -18117,7 +18126,7 @@
       </c>
       <c r="AB16" s="174"/>
     </row>
-    <row r="17" spans="1:28" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" ht="48.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="166">
         <v>16</v>
       </c>
@@ -18193,7 +18202,7 @@
       </c>
       <c r="AB17" s="173"/>
     </row>
-    <row r="18" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="166">
         <v>17</v>
       </c>
@@ -18266,7 +18275,7 @@
       </c>
       <c r="AB18" s="173"/>
     </row>
-    <row r="19" spans="1:28" ht="48" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" ht="43.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="166">
         <v>18</v>
       </c>
@@ -18341,7 +18350,7 @@
       </c>
       <c r="AB19" s="174"/>
     </row>
-    <row r="20" spans="1:28" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" ht="64.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="166">
         <v>19</v>
       </c>
@@ -18411,7 +18420,7 @@
       </c>
       <c r="AB20" s="174"/>
     </row>
-    <row r="21" spans="1:28" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" ht="64.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="166">
         <v>20</v>
       </c>
@@ -18478,7 +18487,7 @@
       <c r="AA21" s="6"/>
       <c r="AB21" s="173"/>
     </row>
-    <row r="22" spans="1:28" ht="80" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" ht="87" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="166">
         <v>21</v>
       </c>
@@ -18553,7 +18562,7 @@
       </c>
       <c r="AB22" s="173"/>
     </row>
-    <row r="23" spans="1:28" ht="32" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" ht="29" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="166">
         <v>22</v>
       </c>
@@ -18618,7 +18627,7 @@
       <c r="AA23" s="6"/>
       <c r="AB23" s="173"/>
     </row>
-    <row r="24" spans="1:28" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" ht="46.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="166">
         <v>23</v>
       </c>
@@ -18683,7 +18692,7 @@
       <c r="AA24" s="41"/>
       <c r="AB24" s="173"/>
     </row>
-    <row r="25" spans="1:28" ht="32" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" ht="29" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="166">
         <v>24</v>
       </c>
@@ -18752,7 +18761,7 @@
       </c>
       <c r="AB25" s="174"/>
     </row>
-    <row r="26" spans="1:28" ht="64" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" ht="72.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="166">
         <v>25</v>
       </c>
@@ -18823,7 +18832,7 @@
       <c r="AA26" s="41"/>
       <c r="AB26" s="173"/>
     </row>
-    <row r="27" spans="1:28" ht="48" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" ht="43.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="166">
         <v>26</v>
       </c>
@@ -18894,7 +18903,7 @@
       <c r="AA27" s="8"/>
       <c r="AB27" s="174"/>
     </row>
-    <row r="28" spans="1:28" ht="48" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" ht="43.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="166">
         <v>27</v>
       </c>
@@ -18967,7 +18976,7 @@
       <c r="AA28" s="6"/>
       <c r="AB28" s="173"/>
     </row>
-    <row r="29" spans="1:28" ht="32" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" ht="29" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="166">
         <v>28</v>
       </c>
@@ -19038,7 +19047,7 @@
       </c>
       <c r="AB29" s="173"/>
     </row>
-    <row r="30" spans="1:28" ht="80" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" ht="72.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="166">
         <v>29</v>
       </c>
@@ -19107,7 +19116,7 @@
       <c r="AA30" s="6"/>
       <c r="AB30" s="173"/>
     </row>
-    <row r="31" spans="1:28" ht="48" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" ht="43.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="166">
         <v>30</v>
       </c>
@@ -19178,7 +19187,7 @@
       <c r="AA31" s="6"/>
       <c r="AB31" s="173"/>
     </row>
-    <row r="32" spans="1:28" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" ht="144" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="166">
         <v>31</v>
       </c>
@@ -19249,7 +19258,7 @@
       </c>
       <c r="AB32" s="173"/>
     </row>
-    <row r="33" spans="1:28" ht="130.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" ht="130.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="166">
         <v>32</v>
       </c>
@@ -19320,7 +19329,7 @@
       <c r="AA33" s="6"/>
       <c r="AB33" s="173"/>
     </row>
-    <row r="34" spans="1:28" ht="168" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" ht="168" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="166">
         <v>33</v>
       </c>
@@ -19397,7 +19406,7 @@
       </c>
       <c r="AB34" s="173"/>
     </row>
-    <row r="35" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="166">
         <v>34</v>
       </c>
@@ -19468,7 +19477,7 @@
       <c r="AA35" s="6"/>
       <c r="AB35" s="173"/>
     </row>
-    <row r="36" spans="1:28" ht="93" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" ht="93" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="166">
         <v>35</v>
       </c>
@@ -19543,7 +19552,7 @@
       <c r="AA36" s="6"/>
       <c r="AB36" s="173"/>
     </row>
-    <row r="37" spans="1:28" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" ht="93.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="166">
         <v>36</v>
       </c>
@@ -19624,7 +19633,7 @@
       </c>
       <c r="AB37" s="174"/>
     </row>
-    <row r="38" spans="1:28" ht="32" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" ht="29" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="166">
         <v>37</v>
       </c>
@@ -19698,7 +19707,7 @@
       </c>
       <c r="AB38" s="174"/>
     </row>
-    <row r="39" spans="1:28" ht="140.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" ht="140.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="166">
         <v>38</v>
       </c>
@@ -19772,7 +19781,7 @@
       </c>
       <c r="AB39" s="173"/>
     </row>
-    <row r="40" spans="1:28" ht="48" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" ht="58" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="166">
         <v>39</v>
       </c>
@@ -19849,7 +19858,7 @@
       <c r="AA40" s="6"/>
       <c r="AB40" s="173"/>
     </row>
-    <row r="41" spans="1:28" ht="64" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:28" ht="58" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="166">
         <v>40</v>
       </c>
@@ -19924,7 +19933,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" ht="69" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="166">
         <v>41</v>
       </c>
@@ -20003,7 +20012,7 @@
       </c>
       <c r="AB42" s="173"/>
     </row>
-    <row r="43" spans="1:28" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:28" ht="47.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="166">
         <v>42</v>
       </c>
@@ -20075,7 +20084,7 @@
       </c>
       <c r="AB43" s="173"/>
     </row>
-    <row r="44" spans="1:28" ht="138.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28" ht="138.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="166">
         <v>43</v>
       </c>
@@ -20148,13 +20157,13 @@
       <c r="AA44" s="6"/>
       <c r="AB44" s="173"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="C45" s="88" t="str">
         <f t="shared" si="0"/>
         <v>_</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="164.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" ht="164.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="166">
         <v>45</v>
       </c>
@@ -20220,7 +20229,7 @@
       <c r="AA46" s="6"/>
       <c r="AB46" s="173"/>
     </row>
-    <row r="47" spans="1:28" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:28" ht="93.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="166">
         <v>46</v>
       </c>
@@ -20292,7 +20301,7 @@
       </c>
       <c r="AB47" s="173"/>
     </row>
-    <row r="48" spans="1:28" ht="32" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:28" ht="29" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="166">
         <v>47</v>
       </c>
@@ -20363,7 +20372,7 @@
       </c>
       <c r="AB48" s="173"/>
     </row>
-    <row r="49" spans="1:28" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:28" ht="48.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="166">
         <v>48</v>
       </c>
@@ -20436,7 +20445,7 @@
       </c>
       <c r="AB49" s="173"/>
     </row>
-    <row r="50" spans="1:28" ht="93" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:28" ht="93" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="166">
         <v>49</v>
       </c>
@@ -20511,7 +20520,7 @@
       </c>
       <c r="AB50" s="173"/>
     </row>
-    <row r="51" spans="1:28" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:28" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="166">
         <v>50</v>
       </c>
@@ -20583,7 +20592,7 @@
       </c>
       <c r="AB51" s="173"/>
     </row>
-    <row r="52" spans="1:28" ht="95.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:28" ht="95.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="166">
         <v>51</v>
       </c>
@@ -20656,7 +20665,7 @@
       <c r="AA52" s="6"/>
       <c r="AB52" s="173"/>
     </row>
-    <row r="53" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="166">
         <v>52</v>
       </c>
@@ -20727,7 +20736,7 @@
       </c>
       <c r="AB53" s="175"/>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="166">
         <v>53</v>
       </c>
@@ -20798,7 +20807,7 @@
       </c>
       <c r="AB54" s="173"/>
     </row>
-    <row r="55" spans="1:28" ht="64" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:28" ht="58" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="166">
         <v>54</v>
       </c>
@@ -20875,7 +20884,7 @@
       </c>
       <c r="AB55" s="173"/>
     </row>
-    <row r="56" spans="1:28" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:28" ht="34.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="166">
         <v>55</v>
       </c>
@@ -20950,7 +20959,7 @@
       </c>
       <c r="AB56" s="174"/>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="166">
         <v>56</v>
       </c>
@@ -21021,7 +21030,7 @@
       </c>
       <c r="AB57" s="173"/>
     </row>
-    <row r="58" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="166">
         <v>57</v>
       </c>
@@ -21093,7 +21102,7 @@
       <c r="AA58" s="6"/>
       <c r="AB58" s="173"/>
     </row>
-    <row r="59" spans="1:28" ht="96" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:28" ht="87" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="166">
         <v>58</v>
       </c>
@@ -21168,7 +21177,7 @@
       <c r="AA59" s="6"/>
       <c r="AB59" s="173"/>
     </row>
-    <row r="60" spans="1:28" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:28" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="166">
         <v>59</v>
       </c>
@@ -21237,7 +21246,7 @@
       <c r="AA60" s="6"/>
       <c r="AB60" s="173"/>
     </row>
-    <row r="61" spans="1:28" ht="48" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:28" ht="43.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="166">
         <v>60</v>
       </c>
@@ -21304,7 +21313,7 @@
       <c r="AA61" s="6"/>
       <c r="AB61" s="173"/>
     </row>
-    <row r="62" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="166">
         <v>61</v>
       </c>
@@ -21375,7 +21384,7 @@
       <c r="AA62" s="6"/>
       <c r="AB62" s="173"/>
     </row>
-    <row r="63" spans="1:28" ht="48" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:28" ht="43.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="166">
         <v>62</v>
       </c>
@@ -21445,7 +21454,7 @@
       </c>
       <c r="AB63" s="173"/>
     </row>
-    <row r="64" spans="1:28" ht="107.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:28" ht="107.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="166">
         <v>63</v>
       </c>
@@ -21505,7 +21514,7 @@
       <c r="Y64" s="6"/>
       <c r="Z64" s="6"/>
     </row>
-    <row r="65" spans="1:28" ht="48" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:28" ht="43.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="166">
         <v>64</v>
       </c>
@@ -21580,7 +21589,7 @@
       <c r="AA65" s="6"/>
       <c r="AB65" s="173"/>
     </row>
-    <row r="66" spans="1:28" ht="80" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:28" ht="87" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="166">
         <v>65</v>
       </c>
@@ -21655,7 +21664,7 @@
       </c>
       <c r="AB66" s="173"/>
     </row>
-    <row r="67" spans="1:28" ht="48" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:28" ht="43.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="166">
         <v>66</v>
       </c>
@@ -21732,7 +21741,7 @@
       </c>
       <c r="AB67" s="173"/>
     </row>
-    <row r="68" spans="1:28" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:28" ht="78.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="166">
         <v>67</v>
       </c>
@@ -21810,7 +21819,7 @@
       </c>
       <c r="AB68" s="173"/>
     </row>
-    <row r="69" spans="1:28" ht="64" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:28" ht="58" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="166">
         <v>68</v>
       </c>
@@ -21884,7 +21893,7 @@
       </c>
       <c r="AB69" s="173"/>
     </row>
-    <row r="70" spans="1:28" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:28" ht="51" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="166">
         <v>69</v>
       </c>
@@ -21954,7 +21963,7 @@
       <c r="AA70" s="6"/>
       <c r="AB70" s="173"/>
     </row>
-    <row r="71" spans="1:28" ht="32" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:28" ht="29" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="166">
         <v>70</v>
       </c>
@@ -22020,7 +22029,7 @@
       <c r="AA71" s="6"/>
       <c r="AB71" s="173"/>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="166">
         <v>71</v>
       </c>
@@ -22091,7 +22100,7 @@
       <c r="AA72" s="6"/>
       <c r="AB72" s="173"/>
     </row>
-    <row r="73" spans="1:28" ht="64" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:28" ht="58" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="166">
         <v>72</v>
       </c>
@@ -22168,7 +22177,7 @@
       </c>
       <c r="AB73" s="174"/>
     </row>
-    <row r="74" spans="1:28" ht="32" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:28" ht="43.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="166">
         <v>73</v>
       </c>
@@ -22243,7 +22252,7 @@
       <c r="AA74" s="8"/>
       <c r="AB74" s="174"/>
     </row>
-    <row r="75" spans="1:28" ht="64" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:28" ht="58" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="166">
         <v>74</v>
       </c>
@@ -22318,7 +22327,7 @@
       <c r="AA75" s="8"/>
       <c r="AB75" s="174"/>
     </row>
-    <row r="76" spans="1:28" ht="48" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:28" ht="43.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="166">
         <v>75</v>
       </c>
@@ -22393,7 +22402,7 @@
       </c>
       <c r="AB76" s="174"/>
     </row>
-    <row r="77" spans="1:28" ht="64" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:28" ht="58" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="166">
         <v>76</v>
       </c>
@@ -22469,7 +22478,7 @@
       </c>
       <c r="AB77" s="174"/>
     </row>
-    <row r="78" spans="1:28" ht="155.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:28" ht="155.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="166">
         <v>77</v>
       </c>
@@ -22544,7 +22553,7 @@
       <c r="AA78" s="8"/>
       <c r="AB78" s="174"/>
     </row>
-    <row r="79" spans="1:28" ht="109.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:28" ht="109.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="166">
         <v>78</v>
       </c>
@@ -22617,7 +22626,7 @@
       <c r="AA79" s="6"/>
       <c r="AB79" s="173"/>
     </row>
-    <row r="80" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="166">
         <v>79</v>
       </c>
@@ -22684,7 +22693,7 @@
       <c r="AA80" s="6"/>
       <c r="AB80" s="173"/>
     </row>
-    <row r="81" spans="1:28" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:28" ht="67.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="166">
         <v>80</v>
       </c>
@@ -22764,7 +22773,7 @@
       </c>
       <c r="AB81" s="173"/>
     </row>
-    <row r="82" spans="1:28" ht="96" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:28" ht="87" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="166">
         <v>81</v>
       </c>
@@ -22836,7 +22845,7 @@
       </c>
       <c r="AB82" s="174"/>
     </row>
-    <row r="83" spans="1:28" ht="32" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:28" ht="29" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="166">
         <v>82</v>
       </c>
@@ -22899,7 +22908,7 @@
       <c r="AA83" s="6"/>
       <c r="AB83" s="173"/>
     </row>
-    <row r="84" spans="1:28" ht="64" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:28" ht="58" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="166">
         <v>83</v>
       </c>
@@ -22971,7 +22980,7 @@
       </c>
       <c r="AB84" s="173"/>
     </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="166">
         <v>84</v>
       </c>
@@ -23038,7 +23047,7 @@
       <c r="AA85" s="6"/>
       <c r="AB85" s="173"/>
     </row>
-    <row r="86" spans="1:28" ht="48" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:28" ht="58" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="166">
         <v>85</v>
       </c>
@@ -23113,7 +23122,7 @@
       <c r="AA86" s="6"/>
       <c r="AB86" s="173"/>
     </row>
-    <row r="87" spans="1:28" ht="48" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:28" ht="43.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="166">
         <v>86</v>
       </c>
@@ -23177,7 +23186,7 @@
       <c r="AA87" s="6"/>
       <c r="AB87" s="173"/>
     </row>
-    <row r="88" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="166">
         <v>87</v>
       </c>
@@ -23247,7 +23256,7 @@
       <c r="AA88" s="6"/>
       <c r="AB88" s="173"/>
     </row>
-    <row r="89" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="166">
         <v>88</v>
       </c>
@@ -23316,7 +23325,7 @@
       <c r="AA89" s="6"/>
       <c r="AB89" s="173"/>
     </row>
-    <row r="90" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="166">
         <v>89</v>
       </c>
@@ -23387,7 +23396,7 @@
       </c>
       <c r="AB90" s="173"/>
     </row>
-    <row r="91" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="166">
         <v>90</v>
       </c>
@@ -23462,7 +23471,7 @@
       <c r="AA91" s="6"/>
       <c r="AB91" s="173"/>
     </row>
-    <row r="92" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="166">
         <v>91</v>
       </c>
@@ -23535,7 +23544,7 @@
       <c r="AA92" s="6"/>
       <c r="AB92" s="173"/>
     </row>
-    <row r="93" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="166">
         <v>92</v>
       </c>
@@ -23605,7 +23614,7 @@
       <c r="AA93" s="6"/>
       <c r="AB93" s="173"/>
     </row>
-    <row r="94" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="166">
         <v>93</v>
       </c>
@@ -23670,7 +23679,7 @@
       <c r="AA94" s="6"/>
       <c r="AB94" s="173"/>
     </row>
-    <row r="95" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="166">
         <v>94</v>
       </c>
@@ -23745,7 +23754,7 @@
       </c>
       <c r="AB95" s="174"/>
     </row>
-    <row r="96" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="166">
         <v>95</v>
       </c>
@@ -23820,7 +23829,7 @@
       </c>
       <c r="AB96" s="173"/>
     </row>
-    <row r="97" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="166">
         <v>96</v>
       </c>
@@ -23897,7 +23906,7 @@
       </c>
       <c r="AB97" s="173"/>
     </row>
-    <row r="98" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="166">
         <v>97</v>
       </c>
@@ -23970,7 +23979,7 @@
       </c>
       <c r="AB98" s="174"/>
     </row>
-    <row r="99" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="166">
         <v>98</v>
       </c>
@@ -24041,7 +24050,7 @@
       <c r="AA99" s="6"/>
       <c r="AB99" s="173"/>
     </row>
-    <row r="100" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="166">
         <v>99</v>
       </c>
@@ -24109,7 +24118,7 @@
       </c>
       <c r="Y100" s="94"/>
     </row>
-    <row r="101" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="166">
         <v>100</v>
       </c>
@@ -24182,7 +24191,7 @@
       <c r="AA101" s="6"/>
       <c r="AB101" s="173"/>
     </row>
-    <row r="102" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="166">
         <v>101</v>
       </c>
@@ -24251,7 +24260,7 @@
       <c r="AA102" s="6"/>
       <c r="AB102" s="173"/>
     </row>
-    <row r="103" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="166">
         <v>102</v>
       </c>
@@ -24327,7 +24336,7 @@
       <c r="AA103" s="6"/>
       <c r="AB103" s="173"/>
     </row>
-    <row r="104" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="166">
         <v>103</v>
       </c>
@@ -24397,7 +24406,7 @@
       <c r="AA104" s="6"/>
       <c r="AB104" s="173"/>
     </row>
-    <row r="105" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="166">
         <v>104</v>
       </c>
@@ -24464,7 +24473,7 @@
       <c r="AA105" s="6"/>
       <c r="AB105" s="173"/>
     </row>
-    <row r="106" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="166">
         <v>105</v>
       </c>
@@ -24546,13 +24555,13 @@
       </c>
       <c r="AB106" s="174"/>
     </row>
-    <row r="107" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="C107" s="88" t="str">
         <f t="shared" si="1"/>
         <v>_</v>
       </c>
     </row>
-    <row r="108" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="166">
         <v>107</v>
       </c>
@@ -24626,7 +24635,7 @@
       <c r="AA108" s="6"/>
       <c r="AB108" s="173"/>
     </row>
-    <row r="109" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="166">
         <v>108</v>
       </c>
@@ -24695,7 +24704,7 @@
       </c>
       <c r="AB109" s="173"/>
     </row>
-    <row r="110" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="166">
         <v>109</v>
       </c>
@@ -24770,7 +24779,7 @@
       <c r="AA110" s="6"/>
       <c r="AB110" s="173"/>
     </row>
-    <row r="111" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="166">
         <v>110</v>
       </c>
@@ -24844,7 +24853,7 @@
       <c r="AA111" s="6"/>
       <c r="AB111" s="173"/>
     </row>
-    <row r="112" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="166">
         <v>111</v>
       </c>
@@ -24917,7 +24926,7 @@
       </c>
       <c r="AB112" s="173"/>
     </row>
-    <row r="113" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="166">
         <v>112</v>
       </c>
@@ -24992,7 +25001,7 @@
       <c r="AA113" s="71"/>
       <c r="AB113" s="173"/>
     </row>
-    <row r="114" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="166">
         <v>113</v>
       </c>
@@ -25065,7 +25074,7 @@
       </c>
       <c r="AB114" s="173"/>
     </row>
-    <row r="115" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="166">
         <v>114</v>
       </c>
@@ -25144,7 +25153,7 @@
       </c>
       <c r="AB115" s="173"/>
     </row>
-    <row r="116" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="166">
         <v>115</v>
       </c>
@@ -25217,7 +25226,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="117" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="166">
         <v>116</v>
       </c>
@@ -25296,7 +25305,7 @@
       </c>
       <c r="AB117" s="173"/>
     </row>
-    <row r="118" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="166">
         <v>117</v>
       </c>
@@ -25368,7 +25377,7 @@
       </c>
       <c r="AB118" s="173"/>
     </row>
-    <row r="119" spans="1:28" ht="96" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:28" ht="101.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="166">
         <v>118</v>
       </c>
@@ -25439,7 +25448,7 @@
       <c r="AA119" s="6"/>
       <c r="AB119" s="173"/>
     </row>
-    <row r="120" spans="1:28" ht="32" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:28" ht="29" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="166">
         <v>119</v>
       </c>
@@ -25512,7 +25521,7 @@
       </c>
       <c r="AB120" s="173"/>
     </row>
-    <row r="121" spans="1:28" ht="48" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:28" ht="58" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="166">
         <v>120</v>
       </c>
@@ -25591,7 +25600,7 @@
       </c>
       <c r="AB121" s="174"/>
     </row>
-    <row r="122" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="166">
         <v>121</v>
       </c>
@@ -25669,7 +25678,7 @@
       </c>
       <c r="AB122" s="173"/>
     </row>
-    <row r="123" spans="1:28" ht="32" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:28" ht="29" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="166">
         <v>122</v>
       </c>
@@ -25738,7 +25747,7 @@
       </c>
       <c r="AB123" s="173"/>
     </row>
-    <row r="124" spans="1:28" ht="48" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:28" ht="58" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="166">
         <v>123</v>
       </c>
@@ -25810,7 +25819,7 @@
       <c r="AA124" s="6"/>
       <c r="AB124" s="173"/>
     </row>
-    <row r="125" spans="1:28" ht="80" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:28" ht="72.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="166">
         <v>124</v>
       </c>
@@ -25880,7 +25889,7 @@
       <c r="AA125" s="6"/>
       <c r="AB125" s="173"/>
     </row>
-    <row r="126" spans="1:28" ht="80" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:28" ht="87" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="166">
         <v>125</v>
       </c>
@@ -25955,7 +25964,7 @@
       </c>
       <c r="AB126" s="173"/>
     </row>
-    <row r="127" spans="1:28" ht="80" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:28" ht="72.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="166">
         <v>126</v>
       </c>
@@ -26028,7 +26037,7 @@
       <c r="AA127" s="6"/>
       <c r="AB127" s="173"/>
     </row>
-    <row r="128" spans="1:28" ht="112" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:28" ht="101.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="166">
         <v>127</v>
       </c>
@@ -26109,7 +26118,7 @@
       </c>
       <c r="AB128" s="173"/>
     </row>
-    <row r="129" spans="1:28" ht="112" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:28" ht="116" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="166">
         <v>128</v>
       </c>
@@ -26180,7 +26189,7 @@
       <c r="AA129" s="6"/>
       <c r="AB129" s="173"/>
     </row>
-    <row r="130" spans="1:28" ht="96" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:28" ht="101.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="166">
         <v>129</v>
       </c>
@@ -26257,7 +26266,7 @@
       </c>
       <c r="AB130" s="173"/>
     </row>
-    <row r="131" spans="1:28" ht="128" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:28" ht="116" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="166">
         <v>130</v>
       </c>
@@ -26330,7 +26339,7 @@
       <c r="AA131" s="6"/>
       <c r="AB131" s="173"/>
     </row>
-    <row r="132" spans="1:28" ht="80" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:28" ht="72.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="166">
         <v>131</v>
       </c>
@@ -26399,7 +26408,7 @@
       <c r="AA132" s="6"/>
       <c r="AB132" s="173"/>
     </row>
-    <row r="133" spans="1:28" ht="48" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:28" ht="43.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="166">
         <v>132</v>
       </c>
@@ -26472,7 +26481,7 @@
       <c r="AA133" s="8"/>
       <c r="AB133" s="174"/>
     </row>
-    <row r="134" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="166">
         <v>133</v>
       </c>
@@ -26543,7 +26552,7 @@
       </c>
       <c r="AB134" s="173"/>
     </row>
-    <row r="135" spans="1:28" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:28" ht="48.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="166">
         <v>134</v>
       </c>
@@ -26615,7 +26624,7 @@
       </c>
       <c r="AB135" s="173"/>
     </row>
-    <row r="136" spans="1:28" ht="32" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:28" ht="29" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="166">
         <v>135</v>
       </c>
@@ -26684,7 +26693,7 @@
       </c>
       <c r="AB136" s="174"/>
     </row>
-    <row r="137" spans="1:28" ht="93" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:28" ht="93" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="166">
         <v>136</v>
       </c>
@@ -26755,7 +26764,7 @@
       <c r="AA137" s="6"/>
       <c r="AB137" s="173"/>
     </row>
-    <row r="138" spans="1:28" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:28" ht="93.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="166">
         <v>137</v>
       </c>
@@ -26828,7 +26837,7 @@
       </c>
       <c r="AB138" s="174"/>
     </row>
-    <row r="139" spans="1:28" ht="48" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:28" ht="43.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="166">
         <v>138</v>
       </c>
@@ -26901,7 +26910,7 @@
       <c r="AA139" s="6"/>
       <c r="AB139" s="173"/>
     </row>
-    <row r="140" spans="1:28" ht="95.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:28" ht="95.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="166">
         <v>139</v>
       </c>
@@ -26970,7 +26979,7 @@
       <c r="AA140" s="6"/>
       <c r="AB140" s="173"/>
     </row>
-    <row r="141" spans="1:28" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:28" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="166">
         <v>140</v>
       </c>
@@ -27035,7 +27044,7 @@
       <c r="AA141" s="6"/>
       <c r="AB141" s="173"/>
     </row>
-    <row r="142" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="166">
         <v>141</v>
       </c>
@@ -27100,7 +27109,7 @@
       <c r="AA142" s="6"/>
       <c r="AB142" s="173"/>
     </row>
-    <row r="143" spans="1:28" ht="32" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:28" ht="43.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="166">
         <v>142</v>
       </c>
@@ -27168,7 +27177,7 @@
       <c r="AA143" s="8"/>
       <c r="AB143" s="174"/>
     </row>
-    <row r="144" spans="1:28" ht="48" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:28" ht="43.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="166">
         <v>143</v>
       </c>
@@ -27238,7 +27247,7 @@
       </c>
       <c r="AB144" s="174"/>
     </row>
-    <row r="145" spans="1:28" ht="104" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:28" ht="104" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="166">
         <v>144</v>
       </c>
@@ -27305,7 +27314,7 @@
       <c r="AA145" s="8"/>
       <c r="AB145" s="174"/>
     </row>
-    <row r="146" spans="1:28" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:28" ht="67.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="166">
         <v>145</v>
       </c>
@@ -27377,7 +27386,7 @@
       </c>
       <c r="AB146" s="173"/>
     </row>
-    <row r="147" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="166">
         <v>146</v>
       </c>
@@ -27443,7 +27452,7 @@
       <c r="AA147" s="6"/>
       <c r="AB147" s="173"/>
     </row>
-    <row r="148" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="166">
         <v>147</v>
       </c>
@@ -27516,7 +27525,7 @@
       </c>
       <c r="AB148" s="173"/>
     </row>
-    <row r="149" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="166">
         <v>148</v>
       </c>
@@ -27583,7 +27592,7 @@
       </c>
       <c r="AB149" s="173"/>
     </row>
-    <row r="150" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="166">
         <v>149</v>
       </c>
@@ -27651,7 +27660,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="151" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="166">
         <v>150</v>
       </c>
@@ -27722,7 +27731,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="152" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="166">
         <v>151</v>
       </c>
@@ -28022,20 +28031,20 @@
       <selection activeCell="A64" sqref="A64:XFD64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" customWidth="1"/>
-    <col min="8" max="8" width="35.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" customWidth="1"/>
+    <col min="7" max="7" width="15.1796875" customWidth="1"/>
+    <col min="8" max="8" width="35.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" s="88"/>
       <c r="B2" s="100"/>
       <c r="C2" s="100"/>
@@ -28065,7 +28074,7 @@
       <c r="AA2" s="150"/>
       <c r="AB2" s="150"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" s="151"/>
       <c r="B3" s="151"/>
       <c r="C3" s="151"/>
@@ -28095,7 +28104,7 @@
       <c r="AA3" s="150"/>
       <c r="AB3" s="150"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" s="152"/>
       <c r="B4" s="100"/>
       <c r="C4" s="100"/>
@@ -28125,7 +28134,7 @@
       <c r="AA4" s="150"/>
       <c r="AB4" s="150"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" s="151"/>
       <c r="B5" s="151"/>
       <c r="C5" s="151"/>
@@ -28155,7 +28164,7 @@
       <c r="AA5" s="150"/>
       <c r="AB5" s="150"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A6" s="153"/>
       <c r="B6" s="104"/>
       <c r="C6" s="104"/>
@@ -28185,7 +28194,7 @@
       <c r="AA6" s="150"/>
       <c r="AB6" s="150"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A7" s="153"/>
       <c r="B7" s="104"/>
       <c r="C7" s="104"/>
@@ -28215,7 +28224,7 @@
       <c r="AA7" s="150"/>
       <c r="AB7" s="150"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A8" s="153"/>
       <c r="B8" s="104"/>
       <c r="C8" s="104"/>
@@ -28245,7 +28254,7 @@
       <c r="AA8" s="150"/>
       <c r="AB8" s="150"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A9" s="104"/>
       <c r="B9" s="104"/>
       <c r="C9" s="104"/>
@@ -28275,7 +28284,7 @@
       <c r="AA9" s="150"/>
       <c r="AB9" s="150"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A10" s="104"/>
       <c r="B10" s="104"/>
       <c r="C10" s="104"/>
@@ -28305,7 +28314,7 @@
       <c r="AA10" s="150"/>
       <c r="AB10" s="150"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A11" s="106"/>
       <c r="B11" s="104"/>
       <c r="C11" s="104"/>
@@ -28335,7 +28344,7 @@
       <c r="AA11" s="150"/>
       <c r="AB11" s="150"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12" s="106"/>
       <c r="B12" s="104"/>
       <c r="C12" s="104"/>
@@ -28365,7 +28374,7 @@
       <c r="AA12" s="150"/>
       <c r="AB12" s="150"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A13" s="106"/>
       <c r="B13" s="100"/>
       <c r="C13" s="100"/>
@@ -28395,7 +28404,7 @@
       <c r="AA13" s="150"/>
       <c r="AB13" s="150"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A14" s="106"/>
       <c r="B14" s="100"/>
       <c r="C14" s="100"/>
@@ -28425,7 +28434,7 @@
       <c r="AA14" s="150"/>
       <c r="AB14" s="150"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A15" s="106"/>
       <c r="B15" s="100"/>
       <c r="C15" s="100"/>
@@ -28455,7 +28464,7 @@
       <c r="AA15" s="150"/>
       <c r="AB15" s="150"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A16" s="106"/>
       <c r="B16" s="100"/>
       <c r="C16" s="100"/>
@@ -28485,7 +28494,7 @@
       <c r="AA16" s="150"/>
       <c r="AB16" s="150"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A17" s="88"/>
       <c r="B17" s="100"/>
       <c r="C17" s="100"/>
@@ -28515,7 +28524,7 @@
       <c r="AA17" s="150"/>
       <c r="AB17" s="150"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A18" s="106"/>
       <c r="B18" s="100"/>
       <c r="C18" s="100"/>
@@ -28545,7 +28554,7 @@
       <c r="AA18" s="150"/>
       <c r="AB18" s="150"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A19" s="106"/>
       <c r="B19" s="100"/>
       <c r="C19" s="100"/>
@@ -28575,7 +28584,7 @@
       <c r="AA19" s="150"/>
       <c r="AB19" s="150"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A20" s="106"/>
       <c r="B20" s="100"/>
       <c r="C20" s="100"/>
@@ -28605,7 +28614,7 @@
       <c r="AA20" s="150"/>
       <c r="AB20" s="150"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A21" s="106"/>
       <c r="B21" s="100"/>
       <c r="C21" s="100"/>
@@ -28635,7 +28644,7 @@
       <c r="AA21" s="150"/>
       <c r="AB21" s="150"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A22" s="155"/>
       <c r="B22" s="100"/>
       <c r="C22" s="100"/>
@@ -28665,7 +28674,7 @@
       <c r="AA22" s="150"/>
       <c r="AB22" s="150"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A23" s="156"/>
       <c r="B23" s="100"/>
       <c r="C23" s="100"/>
@@ -28695,7 +28704,7 @@
       <c r="AA23" s="150"/>
       <c r="AB23" s="150"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A24" s="156"/>
       <c r="B24" s="100"/>
       <c r="C24" s="100"/>
@@ -28725,7 +28734,7 @@
       <c r="AA24" s="150"/>
       <c r="AB24" s="150"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A25" s="106"/>
       <c r="B25" s="100"/>
       <c r="C25" s="100"/>
@@ -28755,7 +28764,7 @@
       <c r="AA25" s="150"/>
       <c r="AB25" s="150"/>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A26" s="157"/>
       <c r="B26" s="98"/>
       <c r="C26" s="98"/>
@@ -28785,7 +28794,7 @@
       <c r="AA26" s="150"/>
       <c r="AB26" s="150"/>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A27" s="106"/>
       <c r="B27" s="100"/>
       <c r="C27" s="100"/>
@@ -28815,7 +28824,7 @@
       <c r="AA27" s="150"/>
       <c r="AB27" s="150"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A28" s="106"/>
       <c r="B28" s="100"/>
       <c r="C28" s="100"/>
@@ -28845,7 +28854,7 @@
       <c r="AA28" s="150"/>
       <c r="AB28" s="150"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A29" s="88"/>
       <c r="B29" s="100"/>
       <c r="C29" s="100"/>
@@ -28875,7 +28884,7 @@
       <c r="AA29" s="150"/>
       <c r="AB29" s="150"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A30" s="157"/>
       <c r="B30" s="99"/>
       <c r="C30" s="99"/>
@@ -28905,7 +28914,7 @@
       <c r="AA30" s="150"/>
       <c r="AB30" s="150"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A31" s="106"/>
       <c r="B31" s="104"/>
       <c r="C31" s="104"/>
@@ -28935,7 +28944,7 @@
       <c r="AA31" s="150"/>
       <c r="AB31" s="150"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A32" s="88"/>
       <c r="B32" s="100"/>
       <c r="C32" s="100"/>
@@ -28965,7 +28974,7 @@
       <c r="AA32" s="150"/>
       <c r="AB32" s="150"/>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A33" s="106"/>
       <c r="B33" s="104"/>
       <c r="C33" s="104"/>
@@ -28995,7 +29004,7 @@
       <c r="AA33" s="150"/>
       <c r="AB33" s="150"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A34" s="153"/>
       <c r="B34" s="105"/>
       <c r="C34" s="104"/>
@@ -29025,7 +29034,7 @@
       <c r="AA34" s="150"/>
       <c r="AB34" s="150"/>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A35" s="106"/>
       <c r="B35" s="100"/>
       <c r="C35" s="100"/>
@@ -29055,7 +29064,7 @@
       <c r="AA35" s="150"/>
       <c r="AB35" s="150"/>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A36" s="106"/>
       <c r="B36" s="104"/>
       <c r="C36" s="104"/>
@@ -29085,7 +29094,7 @@
       <c r="AA36" s="150"/>
       <c r="AB36" s="150"/>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A37" s="106"/>
       <c r="B37" s="104"/>
       <c r="C37" s="104"/>
@@ -29115,7 +29124,7 @@
       <c r="AA37" s="150"/>
       <c r="AB37" s="150"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A38" s="106"/>
       <c r="B38" s="104"/>
       <c r="C38" s="104"/>
@@ -29145,7 +29154,7 @@
       <c r="AA38" s="150"/>
       <c r="AB38" s="150"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A39" s="161"/>
       <c r="B39" s="151"/>
       <c r="C39" s="151"/>
@@ -29175,7 +29184,7 @@
       <c r="AA39" s="150"/>
       <c r="AB39" s="150"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A40" s="106"/>
       <c r="B40" s="100"/>
       <c r="C40" s="100"/>
@@ -29205,7 +29214,7 @@
       <c r="AA40" s="150"/>
       <c r="AB40" s="150"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A41" s="88"/>
       <c r="B41" s="100"/>
       <c r="C41" s="100"/>
@@ -29235,7 +29244,7 @@
       <c r="AA41" s="150"/>
       <c r="AB41" s="150"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A42" s="106"/>
       <c r="B42" s="104"/>
       <c r="C42" s="104"/>
@@ -29265,7 +29274,7 @@
       <c r="AA42" s="150"/>
       <c r="AB42" s="150"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A43" s="164"/>
       <c r="B43" s="151"/>
       <c r="C43" s="151"/>
@@ -29295,7 +29304,7 @@
       <c r="AA43" s="150"/>
       <c r="AB43" s="150"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A44" s="106"/>
       <c r="B44" s="104"/>
       <c r="C44" s="104"/>
@@ -29325,7 +29334,7 @@
       <c r="AA44" s="150"/>
       <c r="AB44" s="150"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A45" s="106"/>
       <c r="B45" s="104"/>
       <c r="C45" s="104"/>
@@ -29355,7 +29364,7 @@
       <c r="AA45" s="150"/>
       <c r="AB45" s="150"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A46" s="161"/>
       <c r="B46" s="104"/>
       <c r="C46" s="151"/>
@@ -29385,7 +29394,7 @@
       <c r="AA46" s="150"/>
       <c r="AB46" s="150"/>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A47" s="161"/>
       <c r="B47" s="104"/>
       <c r="C47" s="104"/>
@@ -29415,7 +29424,7 @@
       <c r="AA47" s="150"/>
       <c r="AB47" s="150"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A48" s="65" t="s">
         <v>1600</v>
       </c>
@@ -29430,7 +29439,7 @@
       <c r="J48" s="66"/>
       <c r="K48" s="67"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A49" s="65"/>
       <c r="B49" s="14" t="s">
         <v>857</v>
@@ -29450,7 +29459,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A50" s="24" t="s">
         <v>1602</v>
       </c>
@@ -29476,7 +29485,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="51" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="24" t="s">
         <v>230</v>
       </c>
@@ -29506,7 +29515,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A52" s="24" t="s">
         <v>1602</v>
       </c>
@@ -29532,7 +29541,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A53" s="24"/>
       <c r="B53" s="14" t="s">
         <v>1614</v>
@@ -29556,7 +29565,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A54" s="24"/>
       <c r="B54" s="14" t="s">
         <v>1618</v>
@@ -29576,7 +29585,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A55" s="24"/>
       <c r="B55" s="14" t="s">
         <v>1621</v>
@@ -29600,7 +29609,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A56" s="65"/>
       <c r="B56" s="14" t="s">
         <v>420</v>
@@ -29622,7 +29631,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A57" s="65"/>
       <c r="B57" s="14" t="s">
         <v>1624</v>
@@ -29644,7 +29653,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A58" s="24" t="s">
         <v>1602</v>
       </c>
@@ -29668,7 +29677,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="59" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A59" s="65"/>
       <c r="B59" s="14" t="s">
         <v>1629</v>
@@ -29694,7 +29703,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A60" s="24" t="s">
         <v>1633</v>
       </c>
@@ -29720,7 +29729,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="61" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A61" s="65"/>
       <c r="B61" s="14" t="s">
         <v>1637</v>
@@ -29744,7 +29753,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="62" spans="1:26" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" ht="79.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="166">
         <v>44</v>
       </c>
@@ -29806,7 +29815,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:26" ht="176" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" ht="159.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="166">
         <v>1</v>
       </c>
@@ -29870,7 +29879,7 @@
       <c r="Y63" s="93"/>
       <c r="Z63" s="94"/>
     </row>
-    <row r="64" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="166">
         <v>106</v>
       </c>
